--- a/HackathonWebAppTests/Models/SampleData/EventApplications-Distributed.xlsx
+++ b/HackathonWebAppTests/Models/SampleData/EventApplications-Distributed.xlsx
@@ -8,22 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blakchrw\Repos\osu-bh-hackathon-webapp\HackathonWebAppTests\Models\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B22F770B-0109-4D50-BC0F-E456EE03962B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D600C73-D68E-4830-AE9F-FBAF814CADB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30300" yWindow="510" windowWidth="29310" windowHeight="19065" activeTab="1" xr2:uid="{2BD9F131-5200-4C4E-AA5A-580FA4153D0D}"/>
+    <workbookView xWindow="-26835" yWindow="3990" windowWidth="29310" windowHeight="19065" activeTab="1" xr2:uid="{2BD9F131-5200-4C4E-AA5A-580FA4153D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Team-SampleData" sheetId="2" r:id="rId1"/>
     <sheet name="EventApps-SampleData-Curves" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'EventApps-SampleData-Curves'!$G$3:$G$72</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'EventApps-SampleData-Curves'!$I$3:$I$72</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'EventApps-SampleData-Curves'!$D$3:$D$72</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'EventApps-SampleData-Curves'!$E$3:$E$72</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'EventApps-SampleData-Curves'!$C$3:$C$72</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'EventApps-SampleData-Curves'!$F$3:$F$72</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'EventApps-SampleData-Curves'!$H$3:$H$72</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'EventApps-SampleData-Curves'!$I$3:$I$72</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'EventApps-SampleData-Curves'!$H$3:$H$72</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'EventApps-SampleData-Curves'!$G$3:$G$72</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'EventApps-SampleData-Curves'!$F$3:$F$72</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'EventApps-SampleData-Curves'!$D$3:$D$72</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'EventApps-SampleData-Curves'!$E$3:$E$72</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'EventApps-SampleData-Curves'!$C$3:$C$72</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">'EventApps-SampleData-Curves'!$I$3:$I$72</definedName>
     <definedName name="_xlcn.WorksheetConnection_applications.xlsxTable11" hidden="1">Table1[]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -75,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="116">
   <si>
     <t>Hack</t>
   </si>
@@ -361,6 +362,69 @@
   <si>
     <t>62d0913c493ff39662d52fba</t>
   </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>SchoolYear</t>
+  </si>
+  <si>
+    <t>first_year</t>
+  </si>
+  <si>
+    <t>second_year</t>
+  </si>
+  <si>
+    <t>third_year</t>
+  </si>
+  <si>
+    <t>fourth_year</t>
+  </si>
+  <si>
+    <t>fifth_year</t>
+  </si>
+  <si>
+    <t>six_plus_years</t>
+  </si>
+  <si>
+    <t>graduate_student</t>
+  </si>
+  <si>
+    <t>phd_student</t>
+  </si>
+  <si>
+    <t>electrical_engineering</t>
+  </si>
+  <si>
+    <t>mechanical_engineering</t>
+  </si>
+  <si>
+    <t>biology</t>
+  </si>
+  <si>
+    <t>aerospace_engineering</t>
+  </si>
+  <si>
+    <t>computer_science</t>
+  </si>
+  <si>
+    <t>general_business</t>
+  </si>
+  <si>
+    <t>architecure</t>
+  </si>
+  <si>
+    <t>chemical_engineering</t>
+  </si>
+  <si>
+    <t>fashion_design_and_production</t>
+  </si>
+  <si>
+    <t>Year</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
 </sst>
 </file>
 
@@ -428,7 +492,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -436,11 +500,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="6"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -460,11 +533,28 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -4835,12 +4925,682 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>School Year</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'EventApps-SampleData-Curves'!$AB$14:$AB$21</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>first_year</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>second_year</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>third_year</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>fourth_year</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>fifth_year</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>six_plus_years</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>graduate_student</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>phd_student</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EventApps-SampleData-Curves'!$AC$14:$AC$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-0811-48AE-AC3C-E20476622ACE}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="352621536"/>
+        <c:axId val="352620704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="352621536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352620704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="352620704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352621536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Major</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'EventApps-SampleData-Curves'!$AF$13:$AF$21</c:f>
+              <c:strCache>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>electrical_engineering</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>mechanical_engineering</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>aerospace_engineering</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>computer_science</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>general_business</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>chemical_engineering</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>architecure</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>biology</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>fashion_design_and_production</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'EventApps-SampleData-Curves'!$AG$13:$AG$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-50B0-40F1-AF3E-C885346A4274}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="352621536"/>
+        <c:axId val="352620704"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="352621536"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352620704"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="352620704"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="352621536"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -4932,7 +5692,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5019,7 +5779,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5106,7 +5866,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.3</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5193,7 +5953,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5280,7 +6040,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5367,7 +6127,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5492,6 +6252,86 @@
 </file>
 
 <file path=xl/charts/colors10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -6867,8 +7707,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -6879,7 +7719,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -6902,7 +7742,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -6925,2039 +7765,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat">
-        <a:solidFill>
-          <a:srgbClr val="D9D9D9"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDash"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -9008,13 +7816,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9025,19 +7826,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -9075,7 +7869,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -9118,23 +7912,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9239,8 +8032,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9372,20 +8165,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9418,8 +8210,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9476,7 +8268,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="1000" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -9527,13 +8319,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -9544,19 +8329,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="25400">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -9594,7 +8372,7 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -9637,23 +8415,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -9758,8 +8535,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -9891,24 +8668,407 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -9918,7 +9078,137 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
@@ -9927,18 +9217,12 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -9949,7 +9233,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
@@ -9972,7 +9256,7 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:defRPr sz="900"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
     <cs:lnRef idx="0"/>
@@ -9995,7 +9279,1531 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="366">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
     <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
@@ -10046,6 +10854,13 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -10056,12 +10871,19 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -10099,6 +10921,1030 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
     <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
@@ -10954,16 +12800,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>138485</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -10978,8 +12824,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8870674" y="762000"/>
-          <a:ext cx="2387379" cy="1645920"/>
+          <a:off x="9939618" y="397565"/>
+          <a:ext cx="2363993" cy="1645920"/>
           <a:chOff x="6862689" y="547644"/>
           <a:chExt cx="9877424" cy="4296300"/>
         </a:xfrm>
@@ -11396,16 +13242,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>548639</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>138485</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -11420,8 +13266,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11322326" y="762000"/>
-          <a:ext cx="2387378" cy="1645920"/>
+          <a:off x="12360088" y="397565"/>
+          <a:ext cx="2363992" cy="1645920"/>
           <a:chOff x="6862689" y="547644"/>
           <a:chExt cx="9877424" cy="4296300"/>
         </a:xfrm>
@@ -11838,16 +13684,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>138485</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -11862,8 +13708,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13773978" y="762000"/>
-          <a:ext cx="2387379" cy="1645920"/>
+          <a:off x="14780559" y="397565"/>
+          <a:ext cx="2363993" cy="1645920"/>
           <a:chOff x="6862689" y="547644"/>
           <a:chExt cx="9877424" cy="4296300"/>
         </a:xfrm>
@@ -12280,16 +14126,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>27</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>138485</xdr:rowOff>
     </xdr:to>
     <xdr:grpSp>
       <xdr:nvGrpSpPr>
@@ -12304,8 +14150,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="16225630" y="762000"/>
-          <a:ext cx="2387380" cy="1645920"/>
+          <a:off x="17201029" y="397565"/>
+          <a:ext cx="2363993" cy="1645920"/>
           <a:chOff x="6862689" y="547644"/>
           <a:chExt cx="9877424" cy="4296300"/>
         </a:xfrm>
@@ -12722,13 +14568,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>548639</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -12746,8 +14592,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="11322326" y="2286000"/>
-          <a:ext cx="2387378" cy="1645920"/>
+          <a:off x="12360088" y="2286000"/>
+          <a:ext cx="2363992" cy="1645920"/>
           <a:chOff x="6862689" y="547644"/>
           <a:chExt cx="9877424" cy="4296300"/>
         </a:xfrm>
@@ -13164,16 +15010,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>596348</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>598626</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>52388</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>582061</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>68954</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13202,13 +15048,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>598627</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>52388</xdr:rowOff>
@@ -13240,16 +15086,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>26</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>33131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
+      <xdr:col>35</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>61706</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -13278,13 +15124,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
+      <xdr:col>14</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -13302,8 +15148,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="8870674" y="2286000"/>
-          <a:ext cx="2387379" cy="1645920"/>
+          <a:off x="9939618" y="2286000"/>
+          <a:ext cx="2363993" cy="1645920"/>
           <a:chOff x="6862689" y="547644"/>
           <a:chExt cx="9877424" cy="4296300"/>
         </a:xfrm>
@@ -13720,13 +15566,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>22</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>121923</xdr:rowOff>
@@ -13744,8 +15590,8 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="13773978" y="2286001"/>
-          <a:ext cx="2387379" cy="1645922"/>
+          <a:off x="14780559" y="2286001"/>
+          <a:ext cx="2363993" cy="1645922"/>
           <a:chOff x="6862689" y="547644"/>
           <a:chExt cx="9877424" cy="4296300"/>
         </a:xfrm>
@@ -14160,14 +16006,90 @@
     </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>86552</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>161097</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>24797</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>92517</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="129" name="Chart 128">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CACB00EE-119C-45EB-9DD1-B639605C5FB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>179294</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>3362</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>117539</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>125282</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="130" name="Chart 129">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FDAE1A1D-B01A-4E06-B7B7-3B6350A64862}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A1E6069-6C87-4430-A1F1-265D76C475C6}" name="Table1" displayName="Table1" ref="A2:K72" totalsRowShown="0" headerRowDxfId="3">
-  <tableColumns count="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A1E6069-6C87-4430-A1F1-265D76C475C6}" name="Table1" displayName="Table1" ref="A2:M72" totalsRowShown="0" headerRowDxfId="5">
+  <tableColumns count="13">
     <tableColumn id="11" xr3:uid="{EA35EF0F-0663-4E08-AA02-60C0FC30D0D5}" name="EventId"/>
-    <tableColumn id="1" xr3:uid="{70B3C4ED-E102-4396-802B-600BFA8D5A1A}" name="UserId" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{70B3C4ED-E102-4396-802B-600BFA8D5A1A}" name="UserId" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{22146A8F-4DA0-4A30-B240-930B9A18170B}" name="HackathonExperience"/>
     <tableColumn id="3" xr3:uid="{33B5EC00-7E6E-4ACC-AA96-8B0B078BBC70}" name="CodingExperience"/>
     <tableColumn id="4" xr3:uid="{B5BAA258-9610-407E-B3E3-502862E46C7D}" name="CommunicationExperience"/>
@@ -14175,10 +16097,12 @@
     <tableColumn id="6" xr3:uid="{C0781924-B0CC-495F-8C0F-A51CEFA945D0}" name="DocumentationExperience"/>
     <tableColumn id="7" xr3:uid="{350DD424-AE80-439F-9A22-A36A437D0298}" name="BusinessExperience"/>
     <tableColumn id="8" xr3:uid="{9188E77B-3174-40B0-8511-888550B1120A}" name="CreativityExperience"/>
-    <tableColumn id="9" xr3:uid="{7D6CD721-E921-4825-9B6D-1B6138A53274}" name="avg" dataDxfId="1">
+    <tableColumn id="13" xr3:uid="{F3684946-6501-4938-A96A-6CC614E8EB91}" name="Major" dataDxfId="0"/>
+    <tableColumn id="12" xr3:uid="{AED3F1F1-71BB-4120-A2D2-2440E9C1F5D7}" name="SchoolYear" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{7D6CD721-E921-4825-9B6D-1B6138A53274}" name="avg" dataDxfId="3">
       <calculatedColumnFormula>AVERAGE(C3:I3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8C4C6F5B-8CB7-4080-B06F-98B11600476F}" name="sum" dataDxfId="0">
+    <tableColumn id="10" xr3:uid="{8C4C6F5B-8CB7-4080-B06F-98B11600476F}" name="sum" dataDxfId="2">
       <calculatedColumnFormula>SUM(C3:I3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -14754,24 +16678,26 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5327DEBE-D0C1-49DB-8536-957FF928C154}">
-  <dimension ref="A1:K76"/>
+  <dimension ref="A1:AG76"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.7109375" customWidth="1"/>
     <col min="2" max="2" width="33.42578125" customWidth="1"/>
+    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>93</v>
       </c>
@@ -14799,14 +16725,20 @@
       <c r="I2" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="10" t="s">
+      <c r="J2" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="L2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="M2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>94</v>
       </c>
@@ -14834,16 +16766,22 @@
       <c r="I3" s="13">
         <v>2</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K3" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L3" s="5">
         <f>AVERAGE(C3:I3)</f>
         <v>2.1428571428571428</v>
       </c>
-      <c r="K3" s="6">
+      <c r="M3" s="6">
         <f>SUM(C3:I3)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>94</v>
       </c>
@@ -14871,16 +16809,22 @@
       <c r="I4" s="13">
         <v>1</v>
       </c>
-      <c r="J4" s="5">
-        <f t="shared" ref="J4:J72" si="0">AVERAGE(C4:I4)</f>
+      <c r="J4" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K4" t="s">
+        <v>99</v>
+      </c>
+      <c r="L4" s="5">
+        <f t="shared" ref="L4:L72" si="0">AVERAGE(C4:I4)</f>
         <v>1.2857142857142858</v>
       </c>
-      <c r="K4" s="6">
-        <f t="shared" ref="K4:K72" si="1">SUM(C4:I4)</f>
+      <c r="M4" s="6">
+        <f t="shared" ref="M4:M72" si="1">SUM(C4:I4)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>94</v>
       </c>
@@ -14908,16 +16852,22 @@
       <c r="I5" s="13">
         <v>2</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" t="s">
+        <v>109</v>
+      </c>
+      <c r="K5" t="s">
+        <v>104</v>
+      </c>
+      <c r="L5" s="5">
         <f t="shared" si="0"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="K5" s="6">
+      <c r="M5" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>94</v>
       </c>
@@ -14945,16 +16895,22 @@
       <c r="I6" s="13">
         <v>1</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L6" s="5">
         <f t="shared" si="0"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="K6" s="6">
+      <c r="M6" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>94</v>
       </c>
@@ -14982,16 +16938,22 @@
       <c r="I7" s="13">
         <v>0</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="5">
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="K7" s="6">
+      <c r="M7" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>94</v>
       </c>
@@ -15019,16 +16981,22 @@
       <c r="I8" s="13">
         <v>0</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" t="s">
+        <v>111</v>
+      </c>
+      <c r="K8" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L8" s="5">
         <f t="shared" si="0"/>
         <v>2.5714285714285716</v>
       </c>
-      <c r="K8" s="6">
+      <c r="M8" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>94</v>
       </c>
@@ -15056,16 +17024,22 @@
       <c r="I9" s="13">
         <v>1</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" t="s">
+        <v>100</v>
+      </c>
+      <c r="L9" s="5">
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="K9" s="6">
+      <c r="M9" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>94</v>
       </c>
@@ -15093,16 +17067,22 @@
       <c r="I10" s="13">
         <v>1</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" t="s">
+        <v>109</v>
+      </c>
+      <c r="K10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L10" s="5">
         <f t="shared" si="0"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="K10" s="6">
+      <c r="M10" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>94</v>
       </c>
@@ -15130,16 +17110,22 @@
       <c r="I11" s="13">
         <v>0</v>
       </c>
-      <c r="J11" s="5">
+      <c r="J11" t="s">
+        <v>113</v>
+      </c>
+      <c r="K11" t="s">
+        <v>103</v>
+      </c>
+      <c r="L11" s="5">
         <f t="shared" si="0"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="K11" s="6">
+      <c r="M11" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>94</v>
       </c>
@@ -15167,16 +17153,28 @@
       <c r="I12" s="13">
         <v>1</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L12" s="5">
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="K12" s="6">
+      <c r="M12" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
+      <c r="AF12" t="s">
+        <v>95</v>
+      </c>
+      <c r="AG12" t="s">
+        <v>115</v>
+      </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>94</v>
       </c>
@@ -15204,16 +17202,35 @@
       <c r="I13" s="13">
         <v>2</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" t="s">
+        <v>112</v>
+      </c>
+      <c r="K13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K13" s="6">
+      <c r="M13" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
+      <c r="AB13" t="s">
+        <v>114</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>115</v>
+      </c>
+      <c r="AF13" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="AG13">
+        <f>COUNTIF(Table1[Major],$AF13)</f>
+        <v>14</v>
+      </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>94</v>
       </c>
@@ -15241,16 +17258,36 @@
       <c r="I14" s="13">
         <v>1</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" t="s">
+        <v>109</v>
+      </c>
+      <c r="K14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K14" s="6">
+      <c r="M14" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
+      <c r="AB14" t="s">
+        <v>97</v>
+      </c>
+      <c r="AC14">
+        <f>COUNTIF(Table1[SchoolYear],$AB14)</f>
+        <v>12</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>106</v>
+      </c>
+      <c r="AG14">
+        <f>COUNTIF(Table1[Major],$AF14)</f>
+        <v>5</v>
+      </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>94</v>
       </c>
@@ -15278,16 +17315,36 @@
       <c r="I15" s="13">
         <v>1</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" t="s">
+        <v>109</v>
+      </c>
+      <c r="K15" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L15" s="5">
         <f t="shared" si="0"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="K15" s="6">
+      <c r="M15" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
+      <c r="AB15" t="s">
+        <v>98</v>
+      </c>
+      <c r="AC15">
+        <f>COUNTIF(Table1[SchoolYear],$AB15)</f>
+        <v>16</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>108</v>
+      </c>
+      <c r="AG15">
+        <f>COUNTIF(Table1[Major],$AF15)</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>94</v>
       </c>
@@ -15315,16 +17372,36 @@
       <c r="I16" s="13">
         <v>1</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" t="s">
+        <v>107</v>
+      </c>
+      <c r="K16" t="s">
+        <v>100</v>
+      </c>
+      <c r="L16" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K16" s="6">
+      <c r="M16" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
+      <c r="AB16" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC16">
+        <f>COUNTIF(Table1[SchoolYear],$AB16)</f>
+        <v>15</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>109</v>
+      </c>
+      <c r="AG16">
+        <f>COUNTIF(Table1[Major],$AF16)</f>
+        <v>20</v>
+      </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>94</v>
       </c>
@@ -15352,16 +17429,36 @@
       <c r="I17" s="13">
         <v>1</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" t="s">
+        <v>107</v>
+      </c>
+      <c r="K17" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="5">
         <f t="shared" si="0"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="K17" s="6">
+      <c r="M17" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
+      <c r="AB17" t="s">
+        <v>100</v>
+      </c>
+      <c r="AC17">
+        <f>COUNTIF(Table1[SchoolYear],$AB17)</f>
+        <v>9</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG17">
+        <f>COUNTIF(Table1[Major],$AF17)</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>94</v>
       </c>
@@ -15389,16 +17486,36 @@
       <c r="I18" s="13">
         <v>4</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K18" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="K18" s="6">
+      <c r="M18" s="6">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
+      <c r="AB18" t="s">
+        <v>101</v>
+      </c>
+      <c r="AC18">
+        <f>COUNTIF(Table1[SchoolYear],$AB18)</f>
+        <v>8</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>112</v>
+      </c>
+      <c r="AG18">
+        <f>COUNTIF(Table1[Major],$AF18)</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>94</v>
       </c>
@@ -15426,16 +17543,36 @@
       <c r="I19" s="13">
         <v>2</v>
       </c>
-      <c r="J19" s="5">
+      <c r="J19" t="s">
+        <v>109</v>
+      </c>
+      <c r="K19" t="s">
+        <v>99</v>
+      </c>
+      <c r="L19" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K19" s="6">
+      <c r="M19" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
+      <c r="AB19" t="s">
+        <v>102</v>
+      </c>
+      <c r="AC19">
+        <f>COUNTIF(Table1[SchoolYear],$AB19)</f>
+        <v>3</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>111</v>
+      </c>
+      <c r="AG19">
+        <f>COUNTIF(Table1[Major],$AF19)</f>
+        <v>6</v>
+      </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>94</v>
       </c>
@@ -15463,16 +17600,36 @@
       <c r="I20" s="13">
         <v>5</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" t="s">
+        <v>109</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L20" s="5">
         <f t="shared" si="0"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="K20" s="6">
+      <c r="M20" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
+      <c r="AB20" t="s">
+        <v>103</v>
+      </c>
+      <c r="AC20">
+        <f>COUNTIF(Table1[SchoolYear],$AB20)</f>
+        <v>4</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>107</v>
+      </c>
+      <c r="AG20">
+        <f>COUNTIF(Table1[Major],$AF20)</f>
+        <v>4</v>
+      </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>94</v>
       </c>
@@ -15500,16 +17657,36 @@
       <c r="I21" s="13">
         <v>1</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" t="s">
+        <v>109</v>
+      </c>
+      <c r="K21" t="s">
+        <v>98</v>
+      </c>
+      <c r="L21" s="5">
         <f t="shared" si="0"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="K21" s="6">
+      <c r="M21" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
+      <c r="AB21" t="s">
+        <v>104</v>
+      </c>
+      <c r="AC21">
+        <f>COUNTIF(Table1[SchoolYear],$AB21)</f>
+        <v>3</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG21">
+        <f>COUNTIF(Table1[Major],$AF21)</f>
+        <v>3</v>
+      </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>94</v>
       </c>
@@ -15537,16 +17714,22 @@
       <c r="I22" s="13">
         <v>1</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" t="s">
+        <v>106</v>
+      </c>
+      <c r="K22" t="s">
+        <v>103</v>
+      </c>
+      <c r="L22" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K22" s="6">
+      <c r="M22" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>94</v>
       </c>
@@ -15574,16 +17757,22 @@
       <c r="I23" s="13">
         <v>2</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" t="s">
+        <v>111</v>
+      </c>
+      <c r="K23" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L23" s="5">
         <f t="shared" si="0"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="K23" s="6">
+      <c r="M23" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>94</v>
       </c>
@@ -15611,16 +17800,22 @@
       <c r="I24" s="13">
         <v>0</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" t="s">
+        <v>111</v>
+      </c>
+      <c r="K24" t="s">
+        <v>100</v>
+      </c>
+      <c r="L24" s="5">
         <f t="shared" si="0"/>
         <v>2.2857142857142856</v>
       </c>
-      <c r="K24" s="6">
+      <c r="M24" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>94</v>
       </c>
@@ -15648,16 +17843,22 @@
       <c r="I25" s="13">
         <v>0</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" t="s">
+        <v>109</v>
+      </c>
+      <c r="K25" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L25" s="5">
         <f t="shared" si="0"/>
         <v>1.2857142857142858</v>
       </c>
-      <c r="K25" s="6">
+      <c r="M25" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>94</v>
       </c>
@@ -15685,16 +17886,22 @@
       <c r="I26" s="13">
         <v>0</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K26" t="s">
+        <v>102</v>
+      </c>
+      <c r="L26" s="5">
         <f t="shared" si="0"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="K26" s="6">
+      <c r="M26" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>94</v>
       </c>
@@ -15722,16 +17929,22 @@
       <c r="I27" s="13">
         <v>0</v>
       </c>
-      <c r="J27" s="5">
+      <c r="J27" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K27" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L27" s="5">
         <f t="shared" si="0"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="K27" s="6">
+      <c r="M27" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>94</v>
       </c>
@@ -15759,16 +17972,22 @@
       <c r="I28" s="13">
         <v>1</v>
       </c>
-      <c r="J28" s="5">
+      <c r="J28" t="s">
+        <v>109</v>
+      </c>
+      <c r="K28" t="s">
+        <v>99</v>
+      </c>
+      <c r="L28" s="5">
         <f t="shared" si="0"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="K28" s="6">
+      <c r="M28" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>94</v>
       </c>
@@ -15796,16 +18015,22 @@
       <c r="I29" s="13">
         <v>0</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K29" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L29" s="5">
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="K29" s="6">
+      <c r="M29" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
@@ -15833,16 +18058,22 @@
       <c r="I30" s="13">
         <v>0</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" t="s">
+        <v>99</v>
+      </c>
+      <c r="L30" s="5">
         <f t="shared" si="0"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="K30" s="6">
+      <c r="M30" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>94</v>
       </c>
@@ -15870,16 +18101,22 @@
       <c r="I31" s="13">
         <v>0</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" t="s">
+        <v>109</v>
+      </c>
+      <c r="K31" t="s">
+        <v>100</v>
+      </c>
+      <c r="L31" s="5">
         <f t="shared" si="0"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="K31" s="6">
+      <c r="M31" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
@@ -15907,16 +18144,22 @@
       <c r="I32" s="13">
         <v>1</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K32" t="s">
+        <v>99</v>
+      </c>
+      <c r="L32" s="5">
         <f t="shared" si="0"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="K32" s="6">
+      <c r="M32" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -15944,16 +18187,22 @@
       <c r="I33" s="13">
         <v>0</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L33" s="5">
         <f t="shared" si="0"/>
         <v>2.2857142857142856</v>
       </c>
-      <c r="K33" s="6">
+      <c r="M33" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
@@ -15981,16 +18230,22 @@
       <c r="I34" s="13">
         <v>1</v>
       </c>
-      <c r="J34" s="5">
+      <c r="J34" t="s">
+        <v>112</v>
+      </c>
+      <c r="K34" t="s">
+        <v>101</v>
+      </c>
+      <c r="L34" s="5">
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="K34" s="6">
+      <c r="M34" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -16018,16 +18273,22 @@
       <c r="I35" s="13">
         <v>0</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" t="s">
+        <v>110</v>
+      </c>
+      <c r="K35" t="s">
+        <v>98</v>
+      </c>
+      <c r="L35" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K35" s="6">
+      <c r="M35" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>94</v>
       </c>
@@ -16055,16 +18316,22 @@
       <c r="I36" s="13">
         <v>0</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" t="s">
+        <v>109</v>
+      </c>
+      <c r="K36" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L36" s="5">
         <f t="shared" si="0"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="K36" s="6">
+      <c r="M36" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>94</v>
       </c>
@@ -16092,16 +18359,22 @@
       <c r="I37" s="13">
         <v>2</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" t="s">
+        <v>111</v>
+      </c>
+      <c r="K37" t="s">
+        <v>99</v>
+      </c>
+      <c r="L37" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K37" s="6">
+      <c r="M37" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>94</v>
       </c>
@@ -16129,16 +18402,22 @@
       <c r="I38" s="13">
         <v>2</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" t="s">
+        <v>107</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L38" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K38" s="6">
+      <c r="M38" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>94</v>
       </c>
@@ -16166,16 +18445,22 @@
       <c r="I39" s="13">
         <v>0</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K39" t="s">
+        <v>103</v>
+      </c>
+      <c r="L39" s="5">
         <f t="shared" si="0"/>
         <v>1.2857142857142858</v>
       </c>
-      <c r="K39" s="6">
+      <c r="M39" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>94</v>
       </c>
@@ -16203,16 +18488,22 @@
       <c r="I40" s="13">
         <v>1</v>
       </c>
-      <c r="J40" s="5">
+      <c r="J40" t="s">
+        <v>113</v>
+      </c>
+      <c r="K40" t="s">
+        <v>100</v>
+      </c>
+      <c r="L40" s="5">
         <f t="shared" si="0"/>
         <v>1.2857142857142858</v>
       </c>
-      <c r="K40" s="6">
+      <c r="M40" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>94</v>
       </c>
@@ -16240,16 +18531,22 @@
       <c r="I41" s="13">
         <v>0</v>
       </c>
-      <c r="J41" s="5">
+      <c r="J41" t="s">
+        <v>109</v>
+      </c>
+      <c r="K41" t="s">
+        <v>99</v>
+      </c>
+      <c r="L41" s="5">
         <f t="shared" si="0"/>
         <v>2.2857142857142856</v>
       </c>
-      <c r="K41" s="6">
+      <c r="M41" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>94</v>
       </c>
@@ -16277,16 +18574,22 @@
       <c r="I42" s="13">
         <v>0</v>
       </c>
-      <c r="J42" s="5">
+      <c r="J42" t="s">
+        <v>111</v>
+      </c>
+      <c r="K42" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L42" s="5">
         <f t="shared" si="0"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="K42" s="6">
+      <c r="M42" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>94</v>
       </c>
@@ -16314,16 +18617,22 @@
       <c r="I43" s="13">
         <v>0</v>
       </c>
-      <c r="J43" s="5">
+      <c r="J43" t="s">
+        <v>106</v>
+      </c>
+      <c r="K43" t="s">
+        <v>98</v>
+      </c>
+      <c r="L43" s="5">
         <f t="shared" si="0"/>
         <v>1.2857142857142858</v>
       </c>
-      <c r="K43" s="6">
+      <c r="M43" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>94</v>
       </c>
@@ -16351,16 +18660,22 @@
       <c r="I44" s="13">
         <v>0</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" t="s">
+        <v>109</v>
+      </c>
+      <c r="K44" t="s">
+        <v>100</v>
+      </c>
+      <c r="L44" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K44" s="6">
+      <c r="M44" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>94</v>
       </c>
@@ -16388,16 +18703,22 @@
       <c r="I45" s="13">
         <v>1</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" t="s">
+        <v>109</v>
+      </c>
+      <c r="K45" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L45" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K45" s="6">
+      <c r="M45" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>94</v>
       </c>
@@ -16425,16 +18746,22 @@
       <c r="I46" s="13">
         <v>2</v>
       </c>
-      <c r="J46" s="5">
+      <c r="J46" t="s">
+        <v>108</v>
+      </c>
+      <c r="K46" t="s">
+        <v>104</v>
+      </c>
+      <c r="L46" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="K46" s="6">
+      <c r="M46" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>94</v>
       </c>
@@ -16462,16 +18789,22 @@
       <c r="I47" s="13">
         <v>2</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K47" t="s">
+        <v>100</v>
+      </c>
+      <c r="L47" s="5">
         <f t="shared" si="0"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="K47" s="6">
+      <c r="M47" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>94</v>
       </c>
@@ -16499,16 +18832,22 @@
       <c r="I48" s="13">
         <v>1</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" t="s">
+        <v>109</v>
+      </c>
+      <c r="K48" t="s">
+        <v>98</v>
+      </c>
+      <c r="L48" s="5">
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="K48" s="6">
+      <c r="M48" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>94</v>
       </c>
@@ -16536,16 +18875,22 @@
       <c r="I49" s="13">
         <v>1</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" t="s">
+        <v>111</v>
+      </c>
+      <c r="K49" t="s">
+        <v>101</v>
+      </c>
+      <c r="L49" s="5">
         <f t="shared" si="0"/>
         <v>2.2857142857142856</v>
       </c>
-      <c r="K49" s="6">
+      <c r="M49" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -16573,16 +18918,22 @@
       <c r="I50" s="13">
         <v>2</v>
       </c>
-      <c r="J50" s="5">
+      <c r="J50" t="s">
+        <v>110</v>
+      </c>
+      <c r="K50" t="s">
+        <v>99</v>
+      </c>
+      <c r="L50" s="5">
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="K50" s="6">
+      <c r="M50" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>94</v>
       </c>
@@ -16610,16 +18961,22 @@
       <c r="I51" s="13">
         <v>1</v>
       </c>
-      <c r="J51" s="5">
-        <f t="shared" ref="J51:J56" si="2">AVERAGE(C51:I51)</f>
+      <c r="J51" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L51" s="5">
+        <f t="shared" ref="L51:L56" si="2">AVERAGE(C51:I51)</f>
         <v>1.7142857142857142</v>
       </c>
-      <c r="K51" s="6">
-        <f t="shared" ref="K51:K56" si="3">SUM(C51:I51)</f>
+      <c r="M51" s="6">
+        <f t="shared" ref="M51:M56" si="3">SUM(C51:I51)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>94</v>
       </c>
@@ -16647,16 +19004,22 @@
       <c r="I52" s="13">
         <v>2</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" t="s">
+        <v>109</v>
+      </c>
+      <c r="K52" t="s">
+        <v>99</v>
+      </c>
+      <c r="L52" s="5">
         <f t="shared" si="2"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="K52" s="6">
+      <c r="M52" s="6">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>94</v>
       </c>
@@ -16684,16 +19047,22 @@
       <c r="I53" s="13">
         <v>1</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" t="s">
+        <v>112</v>
+      </c>
+      <c r="K53" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L53" s="5">
         <f t="shared" si="2"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="K53" s="6">
+      <c r="M53" s="6">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>94</v>
       </c>
@@ -16721,16 +19090,22 @@
       <c r="I54" s="13">
         <v>3</v>
       </c>
-      <c r="J54" s="5">
+      <c r="J54" t="s">
+        <v>106</v>
+      </c>
+      <c r="K54" t="s">
+        <v>99</v>
+      </c>
+      <c r="L54" s="5">
         <f t="shared" si="2"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="K54" s="6">
+      <c r="M54" s="6">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>94</v>
       </c>
@@ -16758,16 +19133,22 @@
       <c r="I55" s="13">
         <v>0</v>
       </c>
-      <c r="J55" s="5">
+      <c r="J55" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K55" t="s">
+        <v>102</v>
+      </c>
+      <c r="L55" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="K55" s="6">
+      <c r="M55" s="6">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>94</v>
       </c>
@@ -16795,16 +19176,22 @@
       <c r="I56" s="13">
         <v>0</v>
       </c>
-      <c r="J56" s="5">
+      <c r="J56" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K56" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L56" s="5">
         <f t="shared" si="2"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="K56" s="6">
+      <c r="M56" s="6">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>94</v>
       </c>
@@ -16832,16 +19219,22 @@
       <c r="I57" s="13">
         <v>1</v>
       </c>
-      <c r="J57" s="5">
+      <c r="J57" t="s">
+        <v>112</v>
+      </c>
+      <c r="K57" t="s">
+        <v>100</v>
+      </c>
+      <c r="L57" s="5">
         <f>AVERAGE(C57:I57)</f>
         <v>1.8571428571428572</v>
       </c>
-      <c r="K57" s="6">
+      <c r="M57" s="6">
         <f>SUM(C57:I57)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>94</v>
       </c>
@@ -16869,16 +19262,22 @@
       <c r="I58" s="13">
         <v>0</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" t="s">
+        <v>109</v>
+      </c>
+      <c r="K58" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L58" s="5">
         <f>AVERAGE(C58:I58)</f>
         <v>2.1428571428571428</v>
       </c>
-      <c r="K58" s="6">
+      <c r="M58" s="6">
         <f>SUM(C58:I58)</f>
         <v>15</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>94</v>
       </c>
@@ -16906,16 +19305,22 @@
       <c r="I59" s="13">
         <v>0</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" t="s">
+        <v>109</v>
+      </c>
+      <c r="K59" t="s">
+        <v>99</v>
+      </c>
+      <c r="L59" s="5">
         <f>AVERAGE(C59:I59)</f>
         <v>1.5714285714285714</v>
       </c>
-      <c r="K59" s="6">
+      <c r="M59" s="6">
         <f>SUM(C59:I59)</f>
         <v>11</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>94</v>
       </c>
@@ -16943,16 +19348,22 @@
       <c r="I60" s="13">
         <v>0</v>
       </c>
-      <c r="J60" s="5">
+      <c r="J60" t="s">
+        <v>108</v>
+      </c>
+      <c r="K60" t="s">
+        <v>101</v>
+      </c>
+      <c r="L60" s="5">
         <f>AVERAGE(C60:I60)</f>
         <v>1.7142857142857142</v>
       </c>
-      <c r="K60" s="6">
+      <c r="M60" s="6">
         <f>SUM(C60:I60)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>94</v>
       </c>
@@ -16980,16 +19391,22 @@
       <c r="I61" s="13">
         <v>0</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" t="s">
+        <v>109</v>
+      </c>
+      <c r="K61" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L61" s="5">
         <f>AVERAGE(C61:I61)</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="K61" s="6">
+      <c r="M61" s="6">
         <f>SUM(C61:I61)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>94</v>
       </c>
@@ -17017,16 +19434,22 @@
       <c r="I62" s="13">
         <v>2</v>
       </c>
-      <c r="J62" s="5">
-        <f t="shared" ref="J62:J64" si="4">AVERAGE(C62:I62)</f>
+      <c r="J62" t="s">
+        <v>113</v>
+      </c>
+      <c r="K62" t="s">
+        <v>101</v>
+      </c>
+      <c r="L62" s="5">
+        <f t="shared" ref="L62:L64" si="4">AVERAGE(C62:I62)</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="K62" s="6">
-        <f t="shared" ref="K62:K64" si="5">SUM(C62:I62)</f>
+      <c r="M62" s="6">
+        <f t="shared" ref="M62:M64" si="5">SUM(C62:I62)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>94</v>
       </c>
@@ -17054,16 +19477,22 @@
       <c r="I63" s="13">
         <v>3</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" t="s">
+        <v>110</v>
+      </c>
+      <c r="K63" t="s">
+        <v>103</v>
+      </c>
+      <c r="L63" s="5">
         <f t="shared" si="4"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="K63" s="6">
+      <c r="M63" s="6">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>94</v>
       </c>
@@ -17091,16 +19520,22 @@
       <c r="I64" s="13">
         <v>4</v>
       </c>
-      <c r="J64" s="5">
+      <c r="J64" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K64" t="s">
+        <v>104</v>
+      </c>
+      <c r="L64" s="5">
         <f t="shared" si="4"/>
         <v>2.7142857142857144</v>
       </c>
-      <c r="K64" s="6">
+      <c r="M64" s="6">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>94</v>
       </c>
@@ -17128,16 +19563,22 @@
       <c r="I65" s="13">
         <v>0</v>
       </c>
-      <c r="J65" s="5">
-        <f t="shared" ref="J65:J67" si="6">AVERAGE(C65:I65)</f>
+      <c r="J65" t="s">
+        <v>108</v>
+      </c>
+      <c r="K65" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L65" s="5">
+        <f t="shared" ref="L65:L67" si="6">AVERAGE(C65:I65)</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="K65" s="6">
-        <f t="shared" ref="K65:K67" si="7">SUM(C65:I65)</f>
+      <c r="M65" s="6">
+        <f t="shared" ref="M65:M67" si="7">SUM(C65:I65)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>94</v>
       </c>
@@ -17165,16 +19606,22 @@
       <c r="I66" s="13">
         <v>1</v>
       </c>
-      <c r="J66" s="5">
+      <c r="J66" t="s">
+        <v>112</v>
+      </c>
+      <c r="K66" t="s">
+        <v>99</v>
+      </c>
+      <c r="L66" s="5">
         <f t="shared" si="6"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="K66" s="6">
+      <c r="M66" s="6">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>94</v>
       </c>
@@ -17202,16 +19649,22 @@
       <c r="I67" s="13">
         <v>2</v>
       </c>
-      <c r="J67" s="5">
+      <c r="J67" t="s">
+        <v>108</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L67" s="5">
         <f t="shared" si="6"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="K67" s="6">
+      <c r="M67" s="6">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>94</v>
       </c>
@@ -17239,16 +19692,22 @@
       <c r="I68" s="13">
         <v>3</v>
       </c>
-      <c r="J68" s="5">
+      <c r="J68" t="s">
+        <v>109</v>
+      </c>
+      <c r="K68" t="s">
+        <v>100</v>
+      </c>
+      <c r="L68" s="5">
         <f>AVERAGE(C68:I68)</f>
         <v>1.8571428571428572</v>
       </c>
-      <c r="K68" s="6">
+      <c r="M68" s="6">
         <f>SUM(C68:I68)</f>
         <v>13</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>94</v>
       </c>
@@ -17276,16 +19735,22 @@
       <c r="I69" s="13">
         <v>0</v>
       </c>
-      <c r="J69" s="5">
+      <c r="J69" t="s">
+        <v>112</v>
+      </c>
+      <c r="K69" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="L69" s="5">
         <f>AVERAGE(C69:I69)</f>
         <v>1.2857142857142858</v>
       </c>
-      <c r="K69" s="6">
+      <c r="M69" s="6">
         <f>SUM(C69:I69)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>94</v>
       </c>
@@ -17313,16 +19778,22 @@
       <c r="I70" s="13">
         <v>0</v>
       </c>
-      <c r="J70" s="5">
+      <c r="J70" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K70" t="s">
+        <v>101</v>
+      </c>
+      <c r="L70" s="5">
         <f>AVERAGE(C70:I70)</f>
         <v>1</v>
       </c>
-      <c r="K70" s="6">
+      <c r="M70" s="6">
         <f>SUM(C70:I70)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>94</v>
       </c>
@@ -17350,16 +19821,22 @@
       <c r="I71" s="13">
         <v>1</v>
       </c>
-      <c r="J71" s="5">
+      <c r="J71" s="15" t="s">
+        <v>105</v>
+      </c>
+      <c r="K71" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L71" s="5">
         <f t="shared" si="0"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="K71" s="6">
+      <c r="M71" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>94</v>
       </c>
@@ -17387,16 +19864,22 @@
       <c r="I72">
         <v>2</v>
       </c>
-      <c r="J72" s="5">
+      <c r="J72" t="s">
+        <v>107</v>
+      </c>
+      <c r="K72" t="s">
+        <v>101</v>
+      </c>
+      <c r="L72" s="5">
         <f t="shared" si="0"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="K72" s="6">
+      <c r="M72" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B74" s="4" t="s">
         <v>12</v>
       </c>
@@ -17428,8 +19911,10 @@
         <f t="shared" si="8"/>
         <v>73</v>
       </c>
+      <c r="J74" s="6"/>
+      <c r="K74" s="6"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B75" s="4" t="s">
         <v>11</v>
       </c>
@@ -17461,8 +19946,10 @@
         <f t="shared" si="9"/>
         <v>1.0428571428571429</v>
       </c>
+      <c r="J75" s="5"/>
+      <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B76" s="4" t="s">
         <v>10</v>
       </c>
@@ -17494,6 +19981,8 @@
         <f t="shared" si="10"/>
         <v>1.1140109551361086</v>
       </c>
+      <c r="J76" s="5"/>
+      <c r="K76" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HackathonWebAppTests/Models/SampleData/EventApplications-Distributed.xlsx
+++ b/HackathonWebAppTests/Models/SampleData/EventApplications-Distributed.xlsx
@@ -8,24 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blakchrw\Repos\osu-bh-hackathon-webapp\HackathonWebAppTests\Models\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D600C73-D68E-4830-AE9F-FBAF814CADB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6421CB37-6395-479C-A840-6C260AC0D09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26835" yWindow="3990" windowWidth="29310" windowHeight="19065" activeTab="1" xr2:uid="{2BD9F131-5200-4C4E-AA5A-580FA4153D0D}"/>
+    <workbookView xWindow="-29430" yWindow="540" windowWidth="29310" windowHeight="19065" activeTab="1" xr2:uid="{2BD9F131-5200-4C4E-AA5A-580FA4153D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Team-SampleData" sheetId="2" r:id="rId1"/>
     <sheet name="EventApps-SampleData-Curves" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'EventApps-SampleData-Curves'!$I$3:$I$72</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'EventApps-SampleData-Curves'!$H$3:$H$72</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'EventApps-SampleData-Curves'!$G$3:$G$72</definedName>
-    <definedName name="_xlchart.v1.3" hidden="1">'EventApps-SampleData-Curves'!$F$3:$F$72</definedName>
-    <definedName name="_xlchart.v1.4" hidden="1">'EventApps-SampleData-Curves'!$D$3:$D$72</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'EventApps-SampleData-Curves'!$E$3:$E$72</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'EventApps-SampleData-Curves'!$C$3:$C$72</definedName>
-    <definedName name="_xlchart.v1.7" hidden="1">'EventApps-SampleData-Curves'!$I$3:$I$72</definedName>
-    <definedName name="_xlcn.WorksheetConnection_applications.xlsxTable11" hidden="1">Table1[]</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'EventApps-SampleData-Curves'!$B$3:$B$72</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'EventApps-SampleData-Curves'!$D$3:$D$72</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'EventApps-SampleData-Curves'!$C$3:$C$72</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">'EventApps-SampleData-Curves'!$E$3:$E$72</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">'EventApps-SampleData-Curves'!$G$3:$G$72</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'EventApps-SampleData-Curves'!$H$3:$H$72</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'EventApps-SampleData-Curves'!$F$3:$F$72</definedName>
+    <definedName name="_xlcn.WorksheetConnection_applications.xlsxTable1" hidden="1">Table1[]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -67,7 +66,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_applications.xlsxTable11"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_applications.xlsxTable1"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -76,7 +75,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="259" uniqueCount="114">
   <si>
     <t>Hack</t>
   </si>
@@ -357,12 +356,6 @@
     <t>472066be-a6d8-41a5-91ca-679bcc51e8c6</t>
   </si>
   <si>
-    <t>EventId</t>
-  </si>
-  <si>
-    <t>62d0913c493ff39662d52fba</t>
-  </si>
-  <si>
     <t>Major</t>
   </si>
   <si>
@@ -541,9 +534,18 @@
   <dxfs count="6">
     <dxf>
       <fill>
-        <patternFill patternType="none">
+        <patternFill patternType="solid">
           <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="5" tint="0.79998168889431442"/>
         </patternFill>
       </fill>
     </dxf>
@@ -557,18 +559,9 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
+        <patternFill patternType="none">
           <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="2" formatCode="0.00"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="5" tint="0.79998168889431442"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
     </dxf>
@@ -894,7 +887,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$C$2:$I$2</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$B$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -923,7 +916,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EventApps-SampleData-Curves'!$C$74:$I$74</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$B$74:$H$74</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1297,7 +1290,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$C$2:$I$2</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$B$2:$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1326,7 +1319,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EventApps-SampleData-Curves'!$C$75:$I$75</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$B$75:$H$75</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -1527,7 +1520,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$C$2</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$B$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1548,7 +1541,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$B$3:$B$72</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$A$3:$A$72</c:f>
               <c:strCache>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
@@ -1766,7 +1759,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EventApps-SampleData-Curves'!$C$3:$C$72</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$B$3:$B$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -1994,7 +1987,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$D$2</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$C$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2015,7 +2008,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$B$3:$B$72</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$A$3:$A$72</c:f>
               <c:strCache>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
@@ -2233,7 +2226,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EventApps-SampleData-Curves'!$D$3:$D$72</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$C$3:$C$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -2461,7 +2454,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$E$2</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$D$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2482,7 +2475,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$B$3:$B$72</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$A$3:$A$72</c:f>
               <c:strCache>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
@@ -2700,7 +2693,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EventApps-SampleData-Curves'!$E$3:$E$72</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$D$3:$D$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -2928,7 +2921,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$F$2</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$E$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2949,7 +2942,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$B$3:$B$72</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$A$3:$A$72</c:f>
               <c:strCache>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
@@ -3167,7 +3160,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EventApps-SampleData-Curves'!$F$3:$F$72</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$E$3:$E$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -3395,7 +3388,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$G$2</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$F$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3416,7 +3409,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$B$3:$B$72</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$A$3:$A$72</c:f>
               <c:strCache>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
@@ -3634,7 +3627,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EventApps-SampleData-Curves'!$G$3:$G$72</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$F$3:$F$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -3862,7 +3855,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$H$2</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$G$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3883,7 +3876,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$B$3:$B$72</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$A$3:$A$72</c:f>
               <c:strCache>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
@@ -4101,7 +4094,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EventApps-SampleData-Curves'!$H$3:$H$72</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$G$3:$G$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -4329,7 +4322,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$I$2</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$H$2</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -4352,7 +4345,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$B$3:$B$72</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$A$3:$A$72</c:f>
               <c:strCache>
                 <c:ptCount val="70"/>
                 <c:pt idx="0">
@@ -4570,7 +4563,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EventApps-SampleData-Curves'!$I$3:$I$72</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$H$3:$H$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="70"/>
@@ -5016,7 +5009,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$AB$14:$AB$21</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$AA$14:$AA$21</c:f>
               <c:strCache>
                 <c:ptCount val="8"/>
                 <c:pt idx="0">
@@ -5048,7 +5041,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EventApps-SampleData-Curves'!$AC$14:$AC$21</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$AB$14:$AB$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="8"/>
@@ -5348,7 +5341,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'EventApps-SampleData-Curves'!$AF$13:$AF$21</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$AE$13:$AE$21</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -5383,7 +5376,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'EventApps-SampleData-Curves'!$AG$13:$AG$21</c:f>
+              <c:f>'EventApps-SampleData-Curves'!$AF$13:$AF$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -5600,7 +5593,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5692,7 +5685,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.4</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5779,7 +5772,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5953,7 +5946,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.4</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6040,7 +6033,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6127,7 +6120,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -12800,13 +12793,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>138485</xdr:rowOff>
@@ -12824,7 +12817,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9939618" y="397565"/>
+          <a:off x="9424147" y="397565"/>
           <a:ext cx="2363993" cy="1645920"/>
           <a:chOff x="6862689" y="547644"/>
           <a:chExt cx="9877424" cy="4296300"/>
@@ -13242,13 +13235,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>548639</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>138485</xdr:rowOff>
@@ -13266,7 +13259,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12360088" y="397565"/>
+          <a:off x="11844618" y="397565"/>
           <a:ext cx="2363992" cy="1645920"/>
           <a:chOff x="6862689" y="547644"/>
           <a:chExt cx="9877424" cy="4296300"/>
@@ -13684,13 +13677,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>138485</xdr:rowOff>
@@ -13708,7 +13701,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14780559" y="397565"/>
+          <a:off x="14265088" y="397565"/>
           <a:ext cx="2363993" cy="1645920"/>
           <a:chOff x="6862689" y="547644"/>
           <a:chExt cx="9877424" cy="4296300"/>
@@ -14126,13 +14119,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>16565</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>138485</xdr:rowOff>
@@ -14150,7 +14143,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="17201029" y="397565"/>
+          <a:off x="16685559" y="397565"/>
           <a:ext cx="2363993" cy="1645920"/>
           <a:chOff x="6862689" y="547644"/>
           <a:chExt cx="9877424" cy="4296300"/>
@@ -14568,13 +14561,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
+      <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
+      <xdr:col>20</xdr:col>
       <xdr:colOff>548639</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -14592,7 +14585,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="12360088" y="2286000"/>
+          <a:off x="11844618" y="2286000"/>
           <a:ext cx="2363992" cy="1645920"/>
           <a:chOff x="6862689" y="547644"/>
           <a:chExt cx="9877424" cy="4296300"/>
@@ -15010,13 +15003,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>596348</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>16566</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
+      <xdr:col>18</xdr:col>
       <xdr:colOff>582061</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>68954</xdr:rowOff>
@@ -15048,13 +15041,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
+      <xdr:col>19</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>598627</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>52388</xdr:rowOff>
@@ -15086,13 +15079,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>33131</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>180974</xdr:colOff>
       <xdr:row>40</xdr:row>
       <xdr:rowOff>61706</xdr:rowOff>
@@ -15124,13 +15117,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
+      <xdr:col>13</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>16</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>121920</xdr:rowOff>
@@ -15148,7 +15141,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9939618" y="2286000"/>
+          <a:off x="9424147" y="2286000"/>
           <a:ext cx="2363993" cy="1645920"/>
           <a:chOff x="6862689" y="547644"/>
           <a:chExt cx="9877424" cy="4296300"/>
@@ -15566,13 +15559,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>1</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
+      <xdr:col>24</xdr:col>
       <xdr:colOff>548640</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>121923</xdr:rowOff>
@@ -15590,7 +15583,7 @@
       </xdr:nvGrpSpPr>
       <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="14780559" y="2286001"/>
+          <a:off x="14265088" y="2286001"/>
           <a:ext cx="2363993" cy="1645922"/>
           <a:chOff x="6862689" y="547644"/>
           <a:chExt cx="9877424" cy="4296300"/>
@@ -16008,13 +16001,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>26</xdr:col>
+      <xdr:col>25</xdr:col>
       <xdr:colOff>86552</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>161097</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>24797</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>92517</xdr:rowOff>
@@ -16046,13 +16039,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>29</xdr:col>
       <xdr:colOff>179294</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>3362</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
+      <xdr:col>33</xdr:col>
       <xdr:colOff>117539</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>125282</xdr:rowOff>
@@ -16086,9 +16079,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A1E6069-6C87-4430-A1F1-265D76C475C6}" name="Table1" displayName="Table1" ref="A2:M72" totalsRowShown="0" headerRowDxfId="5">
-  <tableColumns count="13">
-    <tableColumn id="11" xr3:uid="{EA35EF0F-0663-4E08-AA02-60C0FC30D0D5}" name="EventId"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1A1E6069-6C87-4430-A1F1-265D76C475C6}" name="Table1" displayName="Table1" ref="A2:L72" totalsRowShown="0" headerRowDxfId="5">
+  <tableColumns count="12">
     <tableColumn id="1" xr3:uid="{70B3C4ED-E102-4396-802B-600BFA8D5A1A}" name="UserId" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{22146A8F-4DA0-4A30-B240-930B9A18170B}" name="HackathonExperience"/>
     <tableColumn id="3" xr3:uid="{33B5EC00-7E6E-4ACC-AA96-8B0B078BBC70}" name="CodingExperience"/>
@@ -16097,13 +16089,13 @@
     <tableColumn id="6" xr3:uid="{C0781924-B0CC-495F-8C0F-A51CEFA945D0}" name="DocumentationExperience"/>
     <tableColumn id="7" xr3:uid="{350DD424-AE80-439F-9A22-A36A437D0298}" name="BusinessExperience"/>
     <tableColumn id="8" xr3:uid="{9188E77B-3174-40B0-8511-888550B1120A}" name="CreativityExperience"/>
-    <tableColumn id="13" xr3:uid="{F3684946-6501-4938-A96A-6CC614E8EB91}" name="Major" dataDxfId="0"/>
-    <tableColumn id="12" xr3:uid="{AED3F1F1-71BB-4120-A2D2-2440E9C1F5D7}" name="SchoolYear" dataDxfId="1"/>
-    <tableColumn id="9" xr3:uid="{7D6CD721-E921-4825-9B6D-1B6138A53274}" name="avg" dataDxfId="3">
-      <calculatedColumnFormula>AVERAGE(C3:I3)</calculatedColumnFormula>
+    <tableColumn id="13" xr3:uid="{F3684946-6501-4938-A96A-6CC614E8EB91}" name="Major" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{AED3F1F1-71BB-4120-A2D2-2440E9C1F5D7}" name="SchoolYear" dataDxfId="2"/>
+    <tableColumn id="9" xr3:uid="{7D6CD721-E921-4825-9B6D-1B6138A53274}" name="avg" dataDxfId="1">
+      <calculatedColumnFormula>AVERAGE(B3:H3)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{8C4C6F5B-8CB7-4080-B06F-98B11600476F}" name="sum" dataDxfId="2">
-      <calculatedColumnFormula>SUM(C3:I3)</calculatedColumnFormula>
+    <tableColumn id="10" xr3:uid="{8C4C6F5B-8CB7-4080-B06F-98B11600476F}" name="sum" dataDxfId="0">
+      <calculatedColumnFormula>SUM(B3:H3)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight11" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -16678,121 +16670,114 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5327DEBE-D0C1-49DB-8536-957FF928C154}">
-  <dimension ref="A1:AG76"/>
+  <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" customWidth="1"/>
-    <col min="2" max="2" width="33.42578125" customWidth="1"/>
-    <col min="10" max="10" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1"/>
+    <col min="9" max="9" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="I2" s="9" t="s">
         <v>93</v>
       </c>
-      <c r="B2" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>21</v>
-      </c>
       <c r="J2" s="9" t="s">
-        <v>95</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>7</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="M2" s="10" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="3" t="s">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>23</v>
       </c>
+      <c r="B3" s="13">
+        <v>4</v>
+      </c>
       <c r="C3" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" s="13">
+        <v>1</v>
+      </c>
+      <c r="E3" s="13">
         <v>3</v>
       </c>
-      <c r="E3" s="13">
+      <c r="F3" s="13">
         <v>1</v>
-      </c>
-      <c r="F3" s="13">
-        <v>3</v>
       </c>
       <c r="G3" s="13">
         <v>1</v>
       </c>
       <c r="H3" s="13">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K3" s="5">
+        <f>AVERAGE(B3:H3)</f>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="L3" s="6">
+        <f>SUM(B3:H3)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B4" s="13">
+        <v>4</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0</v>
+      </c>
+      <c r="D4" s="13">
         <v>1</v>
-      </c>
-      <c r="I3" s="13">
-        <v>2</v>
-      </c>
-      <c r="J3" t="s">
-        <v>110</v>
-      </c>
-      <c r="K3" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L3" s="5">
-        <f>AVERAGE(C3:I3)</f>
-        <v>2.1428571428571428</v>
-      </c>
-      <c r="M3" s="6">
-        <f>SUM(C3:I3)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="13">
-        <v>4</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
       </c>
       <c r="E4" s="13">
         <v>1</v>
@@ -16806,33 +16791,30 @@
       <c r="H4" s="13">
         <v>1</v>
       </c>
-      <c r="I4" s="13">
-        <v>1</v>
-      </c>
-      <c r="J4" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="K4" t="s">
-        <v>99</v>
-      </c>
-      <c r="L4" s="5">
-        <f t="shared" ref="L4:L72" si="0">AVERAGE(C4:I4)</f>
+      <c r="I4" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J4" t="s">
+        <v>97</v>
+      </c>
+      <c r="K4" s="5">
+        <f t="shared" ref="K4:K72" si="0">AVERAGE(B4:H4)</f>
         <v>1.2857142857142858</v>
       </c>
-      <c r="M4" s="6">
-        <f t="shared" ref="M4:M72" si="1">SUM(C4:I4)</f>
+      <c r="L4" s="6">
+        <f t="shared" ref="L4:L72" si="1">SUM(B4:H4)</f>
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="3" t="s">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>25</v>
       </c>
+      <c r="B5" s="13">
+        <v>4</v>
+      </c>
       <c r="C5" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" s="13">
         <v>2</v>
@@ -16844,256 +16826,238 @@
         <v>2</v>
       </c>
       <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="13">
         <v>2</v>
       </c>
-      <c r="H5" s="13">
-        <v>1</v>
-      </c>
-      <c r="I5" s="13">
-        <v>2</v>
+      <c r="I5" t="s">
+        <v>107</v>
       </c>
       <c r="J5" t="s">
-        <v>109</v>
-      </c>
-      <c r="K5" t="s">
-        <v>104</v>
-      </c>
-      <c r="L5" s="5">
+        <v>102</v>
+      </c>
+      <c r="K5" s="5">
         <f t="shared" si="0"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="M5" s="6">
+      <c r="L5" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="3" t="s">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>26</v>
       </c>
+      <c r="B6" s="13">
+        <v>3</v>
+      </c>
       <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
         <v>3</v>
       </c>
-      <c r="D6" s="13">
+      <c r="E6" s="13">
+        <v>2</v>
+      </c>
+      <c r="F6" s="13">
         <v>1</v>
       </c>
-      <c r="E6" s="13">
-        <v>3</v>
-      </c>
-      <c r="F6" s="13">
+      <c r="G6" s="13">
         <v>2</v>
       </c>
-      <c r="G6" s="13">
+      <c r="H6" s="13">
         <v>1</v>
       </c>
-      <c r="H6" s="13">
-        <v>2</v>
-      </c>
-      <c r="I6" s="13">
-        <v>1</v>
-      </c>
-      <c r="J6" t="s">
-        <v>110</v>
-      </c>
-      <c r="K6" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L6" s="5">
+      <c r="I6" t="s">
+        <v>108</v>
+      </c>
+      <c r="J6" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="5">
         <f t="shared" si="0"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="M6" s="6">
+      <c r="L6" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>94</v>
-      </c>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>27</v>
       </c>
+      <c r="B7" s="13">
+        <v>3</v>
+      </c>
       <c r="C7" s="13">
+        <v>2</v>
+      </c>
+      <c r="D7" s="13">
+        <v>1</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2</v>
+      </c>
+      <c r="F7" s="13">
         <v>3</v>
       </c>
-      <c r="D7" s="13">
-        <v>2</v>
-      </c>
-      <c r="E7" s="13">
+      <c r="G7" s="13">
         <v>1</v>
       </c>
-      <c r="F7" s="13">
-        <v>2</v>
-      </c>
-      <c r="G7" s="13">
-        <v>3</v>
-      </c>
       <c r="H7" s="13">
-        <v>1</v>
-      </c>
-      <c r="I7" s="13">
         <v>0</v>
       </c>
+      <c r="I7" t="s">
+        <v>104</v>
+      </c>
       <c r="J7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L7" s="5">
+        <v>99</v>
+      </c>
+      <c r="K7" s="5">
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="M7" s="6">
+      <c r="L7" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>94</v>
-      </c>
-      <c r="B8" s="3" t="s">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>28</v>
       </c>
+      <c r="B8" s="13">
+        <v>5</v>
+      </c>
       <c r="C8" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D8" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="E8" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F8" s="13">
         <v>4</v>
       </c>
       <c r="G8" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H8" s="13">
-        <v>2</v>
-      </c>
-      <c r="I8" s="13">
         <v>0</v>
       </c>
-      <c r="J8" t="s">
-        <v>111</v>
-      </c>
-      <c r="K8" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" s="5">
+      <c r="I8" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="5">
         <f t="shared" si="0"/>
         <v>2.5714285714285716</v>
       </c>
-      <c r="M8" s="6">
+      <c r="L8" s="6">
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>94</v>
-      </c>
-      <c r="B9" s="3" t="s">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>29</v>
       </c>
+      <c r="B9" s="13">
+        <v>5</v>
+      </c>
       <c r="C9" s="13">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9" s="13">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E9" s="13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9" s="13">
         <v>1</v>
       </c>
       <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
         <v>1</v>
       </c>
-      <c r="H9" s="13">
-        <v>0</v>
-      </c>
-      <c r="I9" s="13">
-        <v>1</v>
+      <c r="I9" t="s">
+        <v>108</v>
       </c>
       <c r="J9" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" t="s">
-        <v>100</v>
-      </c>
-      <c r="L9" s="5">
+        <v>98</v>
+      </c>
+      <c r="K9" s="5">
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="M9" s="6">
+      <c r="L9" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B10" s="3" t="s">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
         <v>30</v>
       </c>
+      <c r="B10" s="13">
+        <v>5</v>
+      </c>
       <c r="C10" s="13">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D10" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" s="13">
         <v>1</v>
       </c>
       <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
         <v>1</v>
       </c>
-      <c r="H10" s="13">
-        <v>0</v>
-      </c>
-      <c r="I10" s="13">
-        <v>1</v>
+      <c r="I10" t="s">
+        <v>107</v>
       </c>
       <c r="J10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>99</v>
-      </c>
-      <c r="L10" s="5">
+        <v>97</v>
+      </c>
+      <c r="K10" s="5">
         <f t="shared" si="0"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="M10" s="6">
+      <c r="L10" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>94</v>
-      </c>
-      <c r="B11" s="3" t="s">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
         <v>31</v>
       </c>
+      <c r="B11" s="13">
+        <v>1</v>
+      </c>
       <c r="C11" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="13">
         <v>2</v>
@@ -17102,437 +17066,413 @@
         <v>2</v>
       </c>
       <c r="G11" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="13">
-        <v>1</v>
-      </c>
-      <c r="I11" s="13">
         <v>0</v>
       </c>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
       <c r="J11" t="s">
-        <v>113</v>
-      </c>
-      <c r="K11" t="s">
-        <v>103</v>
-      </c>
-      <c r="L11" s="5">
+        <v>101</v>
+      </c>
+      <c r="K11" s="5">
         <f t="shared" si="0"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="M11" s="6">
+      <c r="L11" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>94</v>
-      </c>
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>32</v>
       </c>
+      <c r="B12" s="13">
+        <v>4</v>
+      </c>
       <c r="C12" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D12" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E12" s="13">
+        <v>2</v>
+      </c>
+      <c r="F12" s="13">
+        <v>0</v>
+      </c>
+      <c r="G12" s="13">
         <v>1</v>
-      </c>
-      <c r="F12" s="13">
-        <v>2</v>
-      </c>
-      <c r="G12" s="13">
-        <v>0</v>
       </c>
       <c r="H12" s="13">
         <v>1</v>
       </c>
-      <c r="I12" s="13">
-        <v>1</v>
-      </c>
-      <c r="J12" t="s">
-        <v>108</v>
-      </c>
-      <c r="K12" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L12" s="5">
+      <c r="I12" t="s">
+        <v>106</v>
+      </c>
+      <c r="J12" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K12" s="5">
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="M12" s="6">
+      <c r="L12" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
+      <c r="AE12" t="s">
+        <v>93</v>
+      </c>
       <c r="AF12" t="s">
-        <v>95</v>
-      </c>
-      <c r="AG12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>94</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>33</v>
       </c>
+      <c r="B13" s="13">
+        <v>0</v>
+      </c>
       <c r="C13" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D13" s="13">
+        <v>1</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2</v>
+      </c>
+      <c r="F13" s="13">
         <v>4</v>
       </c>
-      <c r="E13" s="13">
+      <c r="G13" s="13">
         <v>1</v>
       </c>
-      <c r="F13" s="13">
+      <c r="H13" s="13">
         <v>2</v>
       </c>
-      <c r="G13" s="13">
-        <v>4</v>
-      </c>
-      <c r="H13" s="13">
-        <v>1</v>
-      </c>
-      <c r="I13" s="13">
-        <v>2</v>
+      <c r="I13" t="s">
+        <v>110</v>
       </c>
       <c r="J13" t="s">
-        <v>112</v>
-      </c>
-      <c r="K13" t="s">
-        <v>99</v>
-      </c>
-      <c r="L13" s="5">
+        <v>97</v>
+      </c>
+      <c r="K13" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M13" s="6">
+      <c r="L13" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
+      <c r="AA13" t="s">
+        <v>112</v>
+      </c>
       <c r="AB13" t="s">
-        <v>114</v>
-      </c>
-      <c r="AC13" t="s">
-        <v>115</v>
-      </c>
-      <c r="AF13" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="AG13">
-        <f>COUNTIF(Table1[Major],$AF13)</f>
+        <v>113</v>
+      </c>
+      <c r="AE13" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="AF13">
+        <f>COUNTIF(Table1[Major],$AE13)</f>
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>94</v>
-      </c>
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>34</v>
       </c>
+      <c r="B14" s="13">
+        <v>1</v>
+      </c>
       <c r="C14" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D14" s="13">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E14" s="13">
         <v>2</v>
       </c>
       <c r="F14" s="13">
+        <v>1</v>
+      </c>
+      <c r="G14" s="13">
         <v>2</v>
       </c>
-      <c r="G14" s="13">
+      <c r="H14" s="13">
         <v>1</v>
       </c>
-      <c r="H14" s="13">
-        <v>2</v>
-      </c>
-      <c r="I14" s="13">
-        <v>1</v>
+      <c r="I14" t="s">
+        <v>107</v>
       </c>
       <c r="J14" t="s">
-        <v>109</v>
-      </c>
-      <c r="K14" t="s">
-        <v>102</v>
-      </c>
-      <c r="L14" s="5">
+        <v>100</v>
+      </c>
+      <c r="K14" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M14" s="6">
+      <c r="L14" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AB14" t="s">
-        <v>97</v>
-      </c>
-      <c r="AC14">
-        <f>COUNTIF(Table1[SchoolYear],$AB14)</f>
+      <c r="AA14" t="s">
+        <v>95</v>
+      </c>
+      <c r="AB14">
+        <f>COUNTIF(Table1[SchoolYear],$AA14)</f>
         <v>12</v>
       </c>
-      <c r="AF14" t="s">
-        <v>106</v>
-      </c>
-      <c r="AG14">
-        <f>COUNTIF(Table1[Major],$AF14)</f>
+      <c r="AE14" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF14">
+        <f>COUNTIF(Table1[Major],$AE14)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B15" s="3" t="s">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="B15" s="13">
+        <v>0</v>
+      </c>
       <c r="C15" s="13">
+        <v>5</v>
+      </c>
+      <c r="D15" s="13">
         <v>0</v>
       </c>
-      <c r="D15" s="13">
-        <v>5</v>
-      </c>
       <c r="E15" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F15" s="13">
         <v>2</v>
       </c>
       <c r="G15" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H15" s="13">
         <v>1</v>
       </c>
-      <c r="I15" s="13">
-        <v>1</v>
-      </c>
-      <c r="J15" t="s">
-        <v>109</v>
-      </c>
-      <c r="K15" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L15" s="5">
+      <c r="I15" t="s">
+        <v>107</v>
+      </c>
+      <c r="J15" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K15" s="5">
         <f t="shared" si="0"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="M15" s="6">
+      <c r="L15" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="AB15" t="s">
-        <v>98</v>
-      </c>
-      <c r="AC15">
-        <f>COUNTIF(Table1[SchoolYear],$AB15)</f>
+      <c r="AA15" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB15">
+        <f>COUNTIF(Table1[SchoolYear],$AA15)</f>
         <v>16</v>
       </c>
-      <c r="AF15" t="s">
-        <v>108</v>
-      </c>
-      <c r="AG15">
-        <f>COUNTIF(Table1[Major],$AF15)</f>
+      <c r="AE15" t="s">
+        <v>106</v>
+      </c>
+      <c r="AF15">
+        <f>COUNTIF(Table1[Major],$AE15)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>94</v>
-      </c>
-      <c r="B16" s="3" t="s">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
         <v>36</v>
       </c>
+      <c r="B16" s="13">
+        <v>0</v>
+      </c>
       <c r="C16" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D16" s="13">
         <v>3</v>
       </c>
       <c r="E16" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G16" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H16" s="13">
         <v>1</v>
       </c>
-      <c r="I16" s="13">
-        <v>1</v>
+      <c r="I16" t="s">
+        <v>105</v>
       </c>
       <c r="J16" t="s">
-        <v>107</v>
-      </c>
-      <c r="K16" t="s">
-        <v>100</v>
-      </c>
-      <c r="L16" s="5">
+        <v>98</v>
+      </c>
+      <c r="K16" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M16" s="6">
+      <c r="L16" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AB16" t="s">
-        <v>99</v>
-      </c>
-      <c r="AC16">
-        <f>COUNTIF(Table1[SchoolYear],$AB16)</f>
+      <c r="AA16" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB16">
+        <f>COUNTIF(Table1[SchoolYear],$AA16)</f>
         <v>15</v>
       </c>
-      <c r="AF16" t="s">
-        <v>109</v>
-      </c>
-      <c r="AG16">
-        <f>COUNTIF(Table1[Major],$AF16)</f>
+      <c r="AE16" t="s">
+        <v>107</v>
+      </c>
+      <c r="AF16">
+        <f>COUNTIF(Table1[Major],$AE16)</f>
         <v>20</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="3" t="s">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>37</v>
       </c>
+      <c r="B17" s="13">
+        <v>1</v>
+      </c>
       <c r="C17" s="13">
+        <v>5</v>
+      </c>
+      <c r="D17" s="13">
         <v>1</v>
-      </c>
-      <c r="D17" s="13">
-        <v>5</v>
       </c>
       <c r="E17" s="13">
         <v>1</v>
       </c>
       <c r="F17" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G17" s="13">
         <v>2</v>
       </c>
       <c r="H17" s="13">
-        <v>2</v>
-      </c>
-      <c r="I17" s="13">
         <v>1</v>
       </c>
+      <c r="I17" t="s">
+        <v>105</v>
+      </c>
       <c r="J17" t="s">
-        <v>107</v>
-      </c>
-      <c r="K17" t="s">
-        <v>99</v>
-      </c>
-      <c r="L17" s="5">
+        <v>97</v>
+      </c>
+      <c r="K17" s="5">
         <f t="shared" si="0"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="M17" s="6">
+      <c r="L17" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
-      <c r="AB17" t="s">
-        <v>100</v>
-      </c>
-      <c r="AC17">
-        <f>COUNTIF(Table1[SchoolYear],$AB17)</f>
+      <c r="AA17" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB17">
+        <f>COUNTIF(Table1[SchoolYear],$AA17)</f>
         <v>9</v>
       </c>
-      <c r="AF17" t="s">
-        <v>110</v>
-      </c>
-      <c r="AG17">
-        <f>COUNTIF(Table1[Major],$AF17)</f>
+      <c r="AE17" t="s">
+        <v>108</v>
+      </c>
+      <c r="AF17">
+        <f>COUNTIF(Table1[Major],$AE17)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>94</v>
-      </c>
-      <c r="B18" s="3" t="s">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>38</v>
+      </c>
+      <c r="B18" s="13">
+        <v>4</v>
       </c>
       <c r="C18" s="13">
         <v>4</v>
       </c>
       <c r="D18" s="13">
+        <v>2</v>
+      </c>
+      <c r="E18" s="13">
+        <v>1</v>
+      </c>
+      <c r="F18" s="13">
+        <v>5</v>
+      </c>
+      <c r="G18" s="13">
+        <v>1</v>
+      </c>
+      <c r="H18" s="13">
         <v>4</v>
       </c>
-      <c r="E18" s="13">
-        <v>2</v>
-      </c>
-      <c r="F18" s="13">
-        <v>1</v>
-      </c>
-      <c r="G18" s="13">
-        <v>5</v>
-      </c>
-      <c r="H18" s="13">
-        <v>1</v>
-      </c>
-      <c r="I18" s="13">
-        <v>4</v>
-      </c>
-      <c r="J18" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K18" t="s">
-        <v>101</v>
-      </c>
-      <c r="L18" s="5">
+      <c r="I18" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J18" t="s">
+        <v>99</v>
+      </c>
+      <c r="K18" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="M18" s="6">
+      <c r="L18" s="6">
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="AB18" t="s">
-        <v>101</v>
-      </c>
-      <c r="AC18">
-        <f>COUNTIF(Table1[SchoolYear],$AB18)</f>
+      <c r="AA18" t="s">
+        <v>99</v>
+      </c>
+      <c r="AB18">
+        <f>COUNTIF(Table1[SchoolYear],$AA18)</f>
         <v>8</v>
       </c>
-      <c r="AF18" t="s">
-        <v>112</v>
-      </c>
-      <c r="AG18">
-        <f>COUNTIF(Table1[Major],$AF18)</f>
+      <c r="AE18" t="s">
+        <v>110</v>
+      </c>
+      <c r="AF18">
+        <f>COUNTIF(Table1[Major],$AE18)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>94</v>
-      </c>
-      <c r="B19" s="3" t="s">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
         <v>39</v>
       </c>
+      <c r="B19" s="13">
+        <v>1</v>
+      </c>
       <c r="C19" s="13">
+        <v>3</v>
+      </c>
+      <c r="D19" s="13">
         <v>1</v>
       </c>
-      <c r="D19" s="13">
+      <c r="E19" s="13">
         <v>3</v>
       </c>
-      <c r="E19" s="13">
-        <v>1</v>
-      </c>
       <c r="F19" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G19" s="13">
         <v>2</v>
@@ -17540,382 +17480,358 @@
       <c r="H19" s="13">
         <v>2</v>
       </c>
-      <c r="I19" s="13">
-        <v>2</v>
+      <c r="I19" t="s">
+        <v>107</v>
       </c>
       <c r="J19" t="s">
-        <v>109</v>
-      </c>
-      <c r="K19" t="s">
-        <v>99</v>
-      </c>
-      <c r="L19" s="5">
+        <v>97</v>
+      </c>
+      <c r="K19" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M19" s="6">
+      <c r="L19" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
-      <c r="AB19" t="s">
-        <v>102</v>
-      </c>
-      <c r="AC19">
-        <f>COUNTIF(Table1[SchoolYear],$AB19)</f>
+      <c r="AA19" t="s">
+        <v>100</v>
+      </c>
+      <c r="AB19">
+        <f>COUNTIF(Table1[SchoolYear],$AA19)</f>
         <v>3</v>
       </c>
-      <c r="AF19" t="s">
-        <v>111</v>
-      </c>
-      <c r="AG19">
-        <f>COUNTIF(Table1[Major],$AF19)</f>
+      <c r="AE19" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF19">
+        <f>COUNTIF(Table1[Major],$AE19)</f>
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>94</v>
-      </c>
-      <c r="B20" s="3" t="s">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
         <v>40</v>
       </c>
+      <c r="B20" s="13">
+        <v>1</v>
+      </c>
       <c r="C20" s="13">
+        <v>5</v>
+      </c>
+      <c r="D20" s="13">
+        <v>2</v>
+      </c>
+      <c r="E20" s="13">
         <v>1</v>
-      </c>
-      <c r="D20" s="13">
-        <v>5</v>
-      </c>
-      <c r="E20" s="13">
-        <v>2</v>
       </c>
       <c r="F20" s="13">
         <v>1</v>
       </c>
       <c r="G20" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" s="13">
-        <v>0</v>
-      </c>
-      <c r="I20" s="13">
         <v>5</v>
       </c>
-      <c r="J20" t="s">
-        <v>109</v>
-      </c>
-      <c r="K20" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L20" s="5">
+      <c r="I20" t="s">
+        <v>107</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K20" s="5">
         <f t="shared" si="0"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="M20" s="6">
+      <c r="L20" s="6">
         <f t="shared" si="1"/>
         <v>15</v>
       </c>
-      <c r="AB20" t="s">
-        <v>103</v>
-      </c>
-      <c r="AC20">
-        <f>COUNTIF(Table1[SchoolYear],$AB20)</f>
+      <c r="AA20" t="s">
+        <v>101</v>
+      </c>
+      <c r="AB20">
+        <f>COUNTIF(Table1[SchoolYear],$AA20)</f>
         <v>4</v>
       </c>
-      <c r="AF20" t="s">
-        <v>107</v>
-      </c>
-      <c r="AG20">
-        <f>COUNTIF(Table1[Major],$AF20)</f>
+      <c r="AE20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AF20">
+        <f>COUNTIF(Table1[Major],$AE20)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>94</v>
-      </c>
-      <c r="B21" s="3" t="s">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
+      <c r="B21" s="13">
+        <v>1</v>
+      </c>
       <c r="C21" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D21" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
         <v>2</v>
-      </c>
-      <c r="F21" s="13">
-        <v>0</v>
       </c>
       <c r="G21" s="13">
         <v>2</v>
       </c>
       <c r="H21" s="13">
-        <v>2</v>
-      </c>
-      <c r="I21" s="13">
         <v>1</v>
       </c>
+      <c r="I21" t="s">
+        <v>107</v>
+      </c>
       <c r="J21" t="s">
-        <v>109</v>
-      </c>
-      <c r="K21" t="s">
-        <v>98</v>
-      </c>
-      <c r="L21" s="5">
+        <v>96</v>
+      </c>
+      <c r="K21" s="5">
         <f t="shared" si="0"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="M21" s="6">
+      <c r="L21" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
-      <c r="AB21" t="s">
-        <v>104</v>
-      </c>
-      <c r="AC21">
-        <f>COUNTIF(Table1[SchoolYear],$AB21)</f>
+      <c r="AA21" t="s">
+        <v>102</v>
+      </c>
+      <c r="AB21">
+        <f>COUNTIF(Table1[SchoolYear],$AA21)</f>
         <v>3</v>
       </c>
-      <c r="AF21" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG21">
-        <f>COUNTIF(Table1[Major],$AF21)</f>
+      <c r="AE21" t="s">
+        <v>111</v>
+      </c>
+      <c r="AF21">
+        <f>COUNTIF(Table1[Major],$AE21)</f>
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>94</v>
-      </c>
-      <c r="B22" s="3" t="s">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
+      <c r="B22" s="13">
+        <v>1</v>
+      </c>
       <c r="C22" s="13">
+        <v>4</v>
+      </c>
+      <c r="D22" s="13">
         <v>1</v>
       </c>
-      <c r="D22" s="13">
+      <c r="E22" s="13">
+        <v>2</v>
+      </c>
+      <c r="F22" s="13">
         <v>4</v>
       </c>
-      <c r="E22" s="13">
+      <c r="G22" s="13">
         <v>1</v>
-      </c>
-      <c r="F22" s="13">
-        <v>2</v>
-      </c>
-      <c r="G22" s="13">
-        <v>4</v>
       </c>
       <c r="H22" s="13">
         <v>1</v>
       </c>
-      <c r="I22" s="13">
-        <v>1</v>
+      <c r="I22" t="s">
+        <v>104</v>
       </c>
       <c r="J22" t="s">
-        <v>106</v>
-      </c>
-      <c r="K22" t="s">
-        <v>103</v>
-      </c>
-      <c r="L22" s="5">
+        <v>101</v>
+      </c>
+      <c r="K22" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M22" s="6">
+      <c r="L22" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="3" t="s">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
+      <c r="B23" s="13">
+        <v>1</v>
+      </c>
       <c r="C23" s="13">
+        <v>2</v>
+      </c>
+      <c r="D23" s="13">
+        <v>4</v>
+      </c>
+      <c r="E23" s="13">
         <v>1</v>
       </c>
-      <c r="D23" s="13">
+      <c r="F23" s="13">
         <v>2</v>
       </c>
-      <c r="E23" s="13">
-        <v>4</v>
-      </c>
-      <c r="F23" s="13">
+      <c r="G23" s="13">
         <v>1</v>
       </c>
-      <c r="G23" s="13">
+      <c r="H23" s="13">
         <v>2</v>
       </c>
-      <c r="H23" s="13">
-        <v>1</v>
-      </c>
-      <c r="I23" s="13">
-        <v>2</v>
-      </c>
-      <c r="J23" t="s">
-        <v>111</v>
-      </c>
-      <c r="K23" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L23" s="5">
+      <c r="I23" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K23" s="5">
         <f t="shared" si="0"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="M23" s="6">
+      <c r="L23" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>94</v>
-      </c>
-      <c r="B24" s="3" t="s">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
         <v>44</v>
       </c>
+      <c r="B24" s="13">
+        <v>1</v>
+      </c>
       <c r="C24" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D24" s="13">
+        <v>5</v>
+      </c>
+      <c r="E24" s="13">
         <v>3</v>
       </c>
-      <c r="E24" s="13">
-        <v>5</v>
-      </c>
       <c r="F24" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G24" s="13">
         <v>2</v>
       </c>
       <c r="H24" s="13">
-        <v>2</v>
-      </c>
-      <c r="I24" s="13">
         <v>0</v>
       </c>
+      <c r="I24" t="s">
+        <v>109</v>
+      </c>
       <c r="J24" t="s">
-        <v>111</v>
-      </c>
-      <c r="K24" t="s">
-        <v>100</v>
-      </c>
-      <c r="L24" s="5">
+        <v>98</v>
+      </c>
+      <c r="K24" s="5">
         <f t="shared" si="0"/>
         <v>2.2857142857142856</v>
       </c>
-      <c r="M24" s="6">
+      <c r="L24" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="3" t="s">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
         <v>45</v>
       </c>
+      <c r="B25" s="13">
+        <v>0</v>
+      </c>
       <c r="C25" s="13">
+        <v>2</v>
+      </c>
+      <c r="D25" s="13">
+        <v>4</v>
+      </c>
+      <c r="E25" s="13">
+        <v>2</v>
+      </c>
+      <c r="F25" s="13">
         <v>0</v>
       </c>
-      <c r="D25" s="13">
-        <v>2</v>
-      </c>
-      <c r="E25" s="13">
-        <v>4</v>
-      </c>
-      <c r="F25" s="13">
-        <v>2</v>
-      </c>
       <c r="G25" s="13">
+        <v>1</v>
+      </c>
+      <c r="H25" s="13">
         <v>0</v>
       </c>
-      <c r="H25" s="13">
-        <v>1</v>
-      </c>
-      <c r="I25" s="13">
-        <v>0</v>
-      </c>
-      <c r="J25" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L25" s="5">
+      <c r="I25" t="s">
+        <v>107</v>
+      </c>
+      <c r="J25" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K25" s="5">
         <f t="shared" si="0"/>
         <v>1.2857142857142858</v>
       </c>
-      <c r="M25" s="6">
+      <c r="L25" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="3" t="s">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
         <v>46</v>
       </c>
+      <c r="B26" s="13">
+        <v>1</v>
+      </c>
       <c r="C26" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D26" s="13">
         <v>4</v>
       </c>
       <c r="E26" s="13">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G26" s="13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H26" s="13">
         <v>0</v>
       </c>
-      <c r="I26" s="13">
-        <v>0</v>
-      </c>
-      <c r="J26" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="K26" t="s">
-        <v>102</v>
-      </c>
-      <c r="L26" s="5">
+      <c r="I26" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J26" t="s">
+        <v>100</v>
+      </c>
+      <c r="K26" s="5">
         <f t="shared" si="0"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="M26" s="6">
+      <c r="L26" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="3" t="s">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="B27" s="13">
+        <v>0</v>
+      </c>
       <c r="C27" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D27" s="13">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E27" s="13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F27" s="13">
         <v>1</v>
@@ -17924,44 +17840,41 @@
         <v>1</v>
       </c>
       <c r="H27" s="13">
-        <v>1</v>
-      </c>
-      <c r="I27" s="13">
         <v>0</v>
       </c>
-      <c r="J27" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K27" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L27" s="5">
+      <c r="I27" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J27" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K27" s="5">
         <f t="shared" si="0"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="M27" s="6">
+      <c r="L27" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="3" t="s">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>48</v>
       </c>
+      <c r="B28" s="13">
+        <v>2</v>
+      </c>
       <c r="C28" s="13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="13">
         <v>3</v>
       </c>
       <c r="E28" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G28" s="13">
         <v>1</v>
@@ -17969,165 +17882,153 @@
       <c r="H28" s="13">
         <v>1</v>
       </c>
-      <c r="I28" s="13">
-        <v>1</v>
+      <c r="I28" t="s">
+        <v>107</v>
       </c>
       <c r="J28" t="s">
-        <v>109</v>
-      </c>
-      <c r="K28" t="s">
-        <v>99</v>
-      </c>
-      <c r="L28" s="5">
+        <v>97</v>
+      </c>
+      <c r="K28" s="5">
         <f t="shared" si="0"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="M28" s="6">
+      <c r="L28" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="3" t="s">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="B29" s="13">
+        <v>3</v>
+      </c>
       <c r="C29" s="13">
+        <v>2</v>
+      </c>
+      <c r="D29" s="13">
         <v>3</v>
       </c>
-      <c r="D29" s="13">
-        <v>2</v>
-      </c>
       <c r="E29" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F29" s="13">
         <v>1</v>
       </c>
       <c r="G29" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H29" s="13">
-        <v>2</v>
-      </c>
-      <c r="I29" s="13">
         <v>0</v>
       </c>
-      <c r="J29" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K29" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L29" s="5">
+      <c r="I29" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J29" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K29" s="5">
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="M29" s="6">
+      <c r="L29" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="3" t="s">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>50</v>
       </c>
+      <c r="B30" s="13">
+        <v>0</v>
+      </c>
       <c r="C30" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D30" s="13">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E30" s="13">
         <v>4</v>
       </c>
       <c r="F30" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="G30" s="13">
         <v>1</v>
       </c>
       <c r="H30" s="13">
-        <v>1</v>
-      </c>
-      <c r="I30" s="13">
         <v>0</v>
       </c>
+      <c r="I30" t="s">
+        <v>106</v>
+      </c>
       <c r="J30" t="s">
-        <v>108</v>
-      </c>
-      <c r="K30" t="s">
-        <v>99</v>
-      </c>
-      <c r="L30" s="5">
+        <v>97</v>
+      </c>
+      <c r="K30" s="5">
         <f t="shared" si="0"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="M30" s="6">
+      <c r="L30" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="3" t="s">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>51</v>
       </c>
+      <c r="B31" s="13">
+        <v>2</v>
+      </c>
       <c r="C31" s="13">
+        <v>3</v>
+      </c>
+      <c r="D31" s="13">
+        <v>1</v>
+      </c>
+      <c r="E31" s="13">
         <v>2</v>
       </c>
-      <c r="D31" s="13">
-        <v>3</v>
-      </c>
-      <c r="E31" s="13">
+      <c r="F31" s="13">
         <v>1</v>
       </c>
-      <c r="F31" s="13">
+      <c r="G31" s="13">
         <v>2</v>
       </c>
-      <c r="G31" s="13">
-        <v>1</v>
-      </c>
       <c r="H31" s="13">
-        <v>2</v>
-      </c>
-      <c r="I31" s="13">
         <v>0</v>
       </c>
+      <c r="I31" t="s">
+        <v>107</v>
+      </c>
       <c r="J31" t="s">
-        <v>109</v>
-      </c>
-      <c r="K31" t="s">
-        <v>100</v>
-      </c>
-      <c r="L31" s="5">
+        <v>98</v>
+      </c>
+      <c r="K31" s="5">
         <f t="shared" si="0"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="M31" s="6">
+      <c r="L31" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="3" t="s">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
         <v>52</v>
       </c>
+      <c r="B32" s="13">
+        <v>0</v>
+      </c>
       <c r="C32" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D32" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E32" s="13">
         <v>2</v>
@@ -18136,164 +18037,152 @@
         <v>2</v>
       </c>
       <c r="G32" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" s="13">
-        <v>0</v>
-      </c>
-      <c r="I32" s="13">
         <v>1</v>
       </c>
-      <c r="J32" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K32" t="s">
-        <v>99</v>
-      </c>
-      <c r="L32" s="5">
+      <c r="I32" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J32" t="s">
+        <v>97</v>
+      </c>
+      <c r="K32" s="5">
         <f t="shared" si="0"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="M32" s="6">
+      <c r="L32" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="3" t="s">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
         <v>53</v>
       </c>
+      <c r="B33" s="13">
+        <v>3</v>
+      </c>
       <c r="C33" s="13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" s="13">
+        <v>1</v>
+      </c>
+      <c r="E33" s="13">
         <v>5</v>
       </c>
-      <c r="E33" s="13">
+      <c r="F33" s="13">
         <v>1</v>
-      </c>
-      <c r="F33" s="13">
-        <v>5</v>
       </c>
       <c r="G33" s="13">
         <v>1</v>
       </c>
       <c r="H33" s="13">
-        <v>1</v>
-      </c>
-      <c r="I33" s="13">
         <v>0</v>
       </c>
-      <c r="J33" t="s">
-        <v>106</v>
-      </c>
-      <c r="K33" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L33" s="5">
+      <c r="I33" t="s">
+        <v>104</v>
+      </c>
+      <c r="J33" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K33" s="5">
         <f t="shared" si="0"/>
         <v>2.2857142857142856</v>
       </c>
-      <c r="M33" s="6">
+      <c r="L33" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="3" t="s">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>54</v>
       </c>
+      <c r="B34" s="13">
+        <v>1</v>
+      </c>
       <c r="C34" s="13">
+        <v>0</v>
+      </c>
+      <c r="D34" s="13">
         <v>1</v>
       </c>
-      <c r="D34" s="13">
-        <v>0</v>
-      </c>
       <c r="E34" s="13">
+        <v>4</v>
+      </c>
+      <c r="F34" s="13">
+        <v>3</v>
+      </c>
+      <c r="G34" s="13">
+        <v>2</v>
+      </c>
+      <c r="H34" s="13">
         <v>1</v>
       </c>
-      <c r="F34" s="13">
-        <v>4</v>
-      </c>
-      <c r="G34" s="13">
-        <v>3</v>
-      </c>
-      <c r="H34" s="13">
-        <v>2</v>
-      </c>
-      <c r="I34" s="13">
-        <v>1</v>
+      <c r="I34" t="s">
+        <v>110</v>
       </c>
       <c r="J34" t="s">
-        <v>112</v>
-      </c>
-      <c r="K34" t="s">
-        <v>101</v>
-      </c>
-      <c r="L34" s="5">
+        <v>99</v>
+      </c>
+      <c r="K34" s="5">
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="M34" s="6">
+      <c r="L34" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="3" t="s">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>55</v>
       </c>
+      <c r="B35" s="13">
+        <v>2</v>
+      </c>
       <c r="C35" s="13">
+        <v>4</v>
+      </c>
+      <c r="D35" s="13">
         <v>2</v>
       </c>
-      <c r="D35" s="13">
-        <v>4</v>
-      </c>
       <c r="E35" s="13">
+        <v>3</v>
+      </c>
+      <c r="F35" s="13">
+        <v>1</v>
+      </c>
+      <c r="G35" s="13">
         <v>2</v>
       </c>
-      <c r="F35" s="13">
-        <v>3</v>
-      </c>
-      <c r="G35" s="13">
-        <v>1</v>
-      </c>
       <c r="H35" s="13">
-        <v>2</v>
-      </c>
-      <c r="I35" s="13">
         <v>0</v>
       </c>
+      <c r="I35" t="s">
+        <v>108</v>
+      </c>
       <c r="J35" t="s">
-        <v>110</v>
-      </c>
-      <c r="K35" t="s">
-        <v>98</v>
-      </c>
-      <c r="L35" s="5">
+        <v>96</v>
+      </c>
+      <c r="K35" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M35" s="6">
+      <c r="L35" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="3" t="s">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>56</v>
+      </c>
+      <c r="B36" s="13">
+        <v>1</v>
       </c>
       <c r="C36" s="13">
         <v>1</v>
@@ -18302,391 +18191,364 @@
         <v>1</v>
       </c>
       <c r="E36" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" s="13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G36" s="13">
+        <v>2</v>
+      </c>
+      <c r="H36" s="13">
         <v>0</v>
       </c>
-      <c r="H36" s="13">
-        <v>2</v>
-      </c>
-      <c r="I36" s="13">
-        <v>0</v>
-      </c>
-      <c r="J36" t="s">
-        <v>109</v>
-      </c>
-      <c r="K36" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L36" s="5">
+      <c r="I36" t="s">
+        <v>107</v>
+      </c>
+      <c r="J36" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K36" s="5">
         <f t="shared" si="0"/>
         <v>1.1428571428571428</v>
       </c>
-      <c r="M36" s="6">
+      <c r="L36" s="6">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="3" t="s">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="B37" s="13">
+        <v>1</v>
+      </c>
       <c r="C37" s="13">
+        <v>3</v>
+      </c>
+      <c r="D37" s="13">
         <v>1</v>
       </c>
-      <c r="D37" s="13">
-        <v>3</v>
-      </c>
       <c r="E37" s="13">
+        <v>4</v>
+      </c>
+      <c r="F37" s="13">
+        <v>2</v>
+      </c>
+      <c r="G37" s="13">
         <v>1</v>
       </c>
-      <c r="F37" s="13">
-        <v>4</v>
-      </c>
-      <c r="G37" s="13">
+      <c r="H37" s="13">
         <v>2</v>
       </c>
-      <c r="H37" s="13">
-        <v>1</v>
-      </c>
-      <c r="I37" s="13">
-        <v>2</v>
+      <c r="I37" t="s">
+        <v>109</v>
       </c>
       <c r="J37" t="s">
-        <v>111</v>
-      </c>
-      <c r="K37" t="s">
-        <v>99</v>
-      </c>
-      <c r="L37" s="5">
+        <v>97</v>
+      </c>
+      <c r="K37" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M37" s="6">
+      <c r="L37" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="3" t="s">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>58</v>
+      </c>
+      <c r="B38" s="13">
+        <v>2</v>
       </c>
       <c r="C38" s="13">
         <v>2</v>
       </c>
       <c r="D38" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E38" s="13">
+        <v>5</v>
+      </c>
+      <c r="F38" s="13">
         <v>1</v>
-      </c>
-      <c r="F38" s="13">
-        <v>5</v>
       </c>
       <c r="G38" s="13">
         <v>1</v>
       </c>
       <c r="H38" s="13">
-        <v>1</v>
-      </c>
-      <c r="I38" s="13">
         <v>2</v>
       </c>
-      <c r="J38" t="s">
-        <v>107</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L38" s="5">
+      <c r="I38" t="s">
+        <v>105</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K38" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M38" s="6">
+      <c r="L38" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>94</v>
-      </c>
-      <c r="B39" s="3" t="s">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
         <v>59</v>
       </c>
+      <c r="B39" s="13">
+        <v>0</v>
+      </c>
       <c r="C39" s="13">
+        <v>2</v>
+      </c>
+      <c r="D39" s="13">
+        <v>1</v>
+      </c>
+      <c r="E39" s="13">
+        <v>5</v>
+      </c>
+      <c r="F39" s="13">
+        <v>1</v>
+      </c>
+      <c r="G39" s="13">
         <v>0</v>
-      </c>
-      <c r="D39" s="13">
-        <v>2</v>
-      </c>
-      <c r="E39" s="13">
-        <v>1</v>
-      </c>
-      <c r="F39" s="13">
-        <v>5</v>
-      </c>
-      <c r="G39" s="13">
-        <v>1</v>
       </c>
       <c r="H39" s="13">
         <v>0</v>
       </c>
-      <c r="I39" s="13">
-        <v>0</v>
-      </c>
-      <c r="J39" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K39" t="s">
+      <c r="I39" s="15" t="s">
         <v>103</v>
       </c>
-      <c r="L39" s="5">
+      <c r="J39" t="s">
+        <v>101</v>
+      </c>
+      <c r="K39" s="5">
         <f t="shared" si="0"/>
         <v>1.2857142857142858</v>
       </c>
-      <c r="M39" s="6">
+      <c r="L39" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>94</v>
-      </c>
-      <c r="B40" s="3" t="s">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
         <v>60</v>
       </c>
+      <c r="B40" s="13">
+        <v>0</v>
+      </c>
       <c r="C40" s="13">
+        <v>1</v>
+      </c>
+      <c r="D40" s="13">
         <v>0</v>
       </c>
-      <c r="D40" s="13">
-        <v>1</v>
-      </c>
       <c r="E40" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F40" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="G40" s="13">
         <v>2</v>
       </c>
       <c r="H40" s="13">
-        <v>2</v>
-      </c>
-      <c r="I40" s="13">
         <v>1</v>
       </c>
+      <c r="I40" t="s">
+        <v>111</v>
+      </c>
       <c r="J40" t="s">
-        <v>113</v>
-      </c>
-      <c r="K40" t="s">
-        <v>100</v>
-      </c>
-      <c r="L40" s="5">
+        <v>98</v>
+      </c>
+      <c r="K40" s="5">
         <f t="shared" si="0"/>
         <v>1.2857142857142858</v>
       </c>
-      <c r="M40" s="6">
+      <c r="L40" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>94</v>
-      </c>
-      <c r="B41" s="3" t="s">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
         <v>61</v>
       </c>
+      <c r="B41" s="13">
+        <v>2</v>
+      </c>
       <c r="C41" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D41" s="13">
+        <v>1</v>
+      </c>
+      <c r="E41" s="13">
         <v>4</v>
       </c>
-      <c r="E41" s="13">
-        <v>1</v>
-      </c>
       <c r="F41" s="13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G41" s="13">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H41" s="13">
         <v>0</v>
       </c>
-      <c r="I41" s="13">
-        <v>0</v>
+      <c r="I41" t="s">
+        <v>107</v>
       </c>
       <c r="J41" t="s">
-        <v>109</v>
-      </c>
-      <c r="K41" t="s">
-        <v>99</v>
-      </c>
-      <c r="L41" s="5">
+        <v>97</v>
+      </c>
+      <c r="K41" s="5">
         <f t="shared" si="0"/>
         <v>2.2857142857142856</v>
       </c>
-      <c r="M41" s="6">
+      <c r="L41" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>94</v>
-      </c>
-      <c r="B42" s="3" t="s">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
         <v>62</v>
       </c>
+      <c r="B42" s="13">
+        <v>2</v>
+      </c>
       <c r="C42" s="13">
+        <v>4</v>
+      </c>
+      <c r="D42" s="13">
+        <v>0</v>
+      </c>
+      <c r="E42" s="13">
         <v>2</v>
-      </c>
-      <c r="D42" s="13">
-        <v>4</v>
-      </c>
-      <c r="E42" s="13">
-        <v>0</v>
       </c>
       <c r="F42" s="13">
         <v>2</v>
       </c>
       <c r="G42" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H42" s="13">
-        <v>1</v>
-      </c>
-      <c r="I42" s="13">
         <v>0</v>
       </c>
-      <c r="J42" t="s">
-        <v>111</v>
-      </c>
-      <c r="K42" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L42" s="5">
+      <c r="I42" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K42" s="5">
         <f t="shared" si="0"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="M42" s="6">
+      <c r="L42" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>94</v>
-      </c>
-      <c r="B43" s="3" t="s">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>63</v>
       </c>
+      <c r="B43" s="13">
+        <v>2</v>
+      </c>
       <c r="C43" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D43" s="13">
         <v>1</v>
       </c>
       <c r="E43" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F43" s="13">
         <v>2</v>
       </c>
       <c r="G43" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H43" s="13">
-        <v>1</v>
-      </c>
-      <c r="I43" s="13">
         <v>0</v>
       </c>
+      <c r="I43" t="s">
+        <v>104</v>
+      </c>
       <c r="J43" t="s">
-        <v>106</v>
-      </c>
-      <c r="K43" t="s">
-        <v>98</v>
-      </c>
-      <c r="L43" s="5">
+        <v>96</v>
+      </c>
+      <c r="K43" s="5">
         <f t="shared" si="0"/>
         <v>1.2857142857142858</v>
       </c>
-      <c r="M43" s="6">
+      <c r="L43" s="6">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>94</v>
-      </c>
-      <c r="B44" s="14" t="s">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="14" t="s">
         <v>64</v>
       </c>
+      <c r="B44" s="13">
+        <v>0</v>
+      </c>
       <c r="C44" s="13">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D44" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E44" s="13">
         <v>2</v>
       </c>
       <c r="F44" s="13">
+        <v>4</v>
+      </c>
+      <c r="G44" s="13">
         <v>2</v>
       </c>
-      <c r="G44" s="13">
-        <v>4</v>
-      </c>
       <c r="H44" s="13">
-        <v>2</v>
-      </c>
-      <c r="I44" s="13">
         <v>0</v>
       </c>
+      <c r="I44" t="s">
+        <v>107</v>
+      </c>
       <c r="J44" t="s">
-        <v>109</v>
-      </c>
-      <c r="K44" t="s">
-        <v>100</v>
-      </c>
-      <c r="L44" s="5">
+        <v>98</v>
+      </c>
+      <c r="K44" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M44" s="6">
+      <c r="L44" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>94</v>
-      </c>
-      <c r="B45" s="14" t="s">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="14" t="s">
         <v>65</v>
       </c>
+      <c r="B45" s="13">
+        <v>1</v>
+      </c>
       <c r="C45" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E45" s="13">
         <v>2</v>
@@ -18698,170 +18560,158 @@
         <v>2</v>
       </c>
       <c r="H45" s="13">
-        <v>2</v>
-      </c>
-      <c r="I45" s="13">
         <v>1</v>
       </c>
-      <c r="J45" t="s">
-        <v>109</v>
-      </c>
-      <c r="K45" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L45" s="5">
+      <c r="I45" t="s">
+        <v>107</v>
+      </c>
+      <c r="J45" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K45" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M45" s="6">
+      <c r="L45" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>94</v>
-      </c>
-      <c r="B46" s="3" t="s">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
         <v>66</v>
+      </c>
+      <c r="B46" s="13">
+        <v>2</v>
       </c>
       <c r="C46" s="13">
         <v>2</v>
       </c>
       <c r="D46" s="13">
+        <v>3</v>
+      </c>
+      <c r="E46" s="13">
         <v>2</v>
-      </c>
-      <c r="E46" s="13">
-        <v>3</v>
       </c>
       <c r="F46" s="13">
         <v>2</v>
       </c>
       <c r="G46" s="13">
+        <v>1</v>
+      </c>
+      <c r="H46" s="13">
         <v>2</v>
       </c>
-      <c r="H46" s="13">
-        <v>1</v>
-      </c>
-      <c r="I46" s="13">
-        <v>2</v>
+      <c r="I46" t="s">
+        <v>106</v>
       </c>
       <c r="J46" t="s">
-        <v>108</v>
-      </c>
-      <c r="K46" t="s">
-        <v>104</v>
-      </c>
-      <c r="L46" s="5">
+        <v>102</v>
+      </c>
+      <c r="K46" s="5">
         <f t="shared" si="0"/>
         <v>2</v>
       </c>
-      <c r="M46" s="6">
+      <c r="L46" s="6">
         <f t="shared" si="1"/>
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>94</v>
-      </c>
-      <c r="B47" s="3" t="s">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
         <v>67</v>
       </c>
+      <c r="B47" s="13">
+        <v>0</v>
+      </c>
       <c r="C47" s="13">
+        <v>3</v>
+      </c>
+      <c r="D47" s="13">
         <v>0</v>
       </c>
-      <c r="D47" s="13">
-        <v>3</v>
-      </c>
       <c r="E47" s="13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F47" s="13">
         <v>2</v>
       </c>
       <c r="G47" s="13">
+        <v>1</v>
+      </c>
+      <c r="H47" s="13">
         <v>2</v>
       </c>
-      <c r="H47" s="13">
-        <v>1</v>
-      </c>
-      <c r="I47" s="13">
-        <v>2</v>
-      </c>
-      <c r="J47" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K47" t="s">
-        <v>100</v>
-      </c>
-      <c r="L47" s="5">
+      <c r="I47" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J47" t="s">
+        <v>98</v>
+      </c>
+      <c r="K47" s="5">
         <f t="shared" si="0"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="M47" s="6">
+      <c r="L47" s="6">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="3" t="s">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>68</v>
       </c>
+      <c r="B48" s="13">
+        <v>2</v>
+      </c>
       <c r="C48" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D48" s="13">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E48" s="13">
         <v>1</v>
       </c>
       <c r="F48" s="13">
+        <v>2</v>
+      </c>
+      <c r="G48" s="13">
         <v>1</v>
-      </c>
-      <c r="G48" s="13">
-        <v>2</v>
       </c>
       <c r="H48" s="13">
         <v>1</v>
       </c>
-      <c r="I48" s="13">
-        <v>1</v>
+      <c r="I48" t="s">
+        <v>107</v>
       </c>
       <c r="J48" t="s">
-        <v>109</v>
-      </c>
-      <c r="K48" t="s">
-        <v>98</v>
-      </c>
-      <c r="L48" s="5">
+        <v>96</v>
+      </c>
+      <c r="K48" s="5">
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="M48" s="6">
+      <c r="L48" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>94</v>
-      </c>
-      <c r="B49" s="3" t="s">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
         <v>69</v>
       </c>
+      <c r="B49" s="13">
+        <v>2</v>
+      </c>
       <c r="C49" s="13">
+        <v>4</v>
+      </c>
+      <c r="D49" s="13">
+        <v>3</v>
+      </c>
+      <c r="E49" s="13">
         <v>2</v>
-      </c>
-      <c r="D49" s="13">
-        <v>4</v>
-      </c>
-      <c r="E49" s="13">
-        <v>3</v>
       </c>
       <c r="F49" s="13">
         <v>2</v>
@@ -18870,118 +18720,109 @@
         <v>2</v>
       </c>
       <c r="H49" s="13">
-        <v>2</v>
-      </c>
-      <c r="I49" s="13">
         <v>1</v>
       </c>
+      <c r="I49" t="s">
+        <v>109</v>
+      </c>
       <c r="J49" t="s">
-        <v>111</v>
-      </c>
-      <c r="K49" t="s">
-        <v>101</v>
-      </c>
-      <c r="L49" s="5">
+        <v>99</v>
+      </c>
+      <c r="K49" s="5">
         <f t="shared" si="0"/>
         <v>2.2857142857142856</v>
       </c>
-      <c r="M49" s="6">
+      <c r="L49" s="6">
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>94</v>
-      </c>
-      <c r="B50" s="3" t="s">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
         <v>70</v>
       </c>
+      <c r="B50" s="13">
+        <v>2</v>
+      </c>
       <c r="C50" s="13">
+        <v>3</v>
+      </c>
+      <c r="D50" s="13">
         <v>2</v>
       </c>
-      <c r="D50" s="13">
-        <v>3</v>
-      </c>
       <c r="E50" s="13">
+        <v>1</v>
+      </c>
+      <c r="F50" s="13">
         <v>2</v>
       </c>
-      <c r="F50" s="13">
-        <v>1</v>
-      </c>
       <c r="G50" s="13">
+        <v>0</v>
+      </c>
+      <c r="H50" s="13">
         <v>2</v>
       </c>
-      <c r="H50" s="13">
-        <v>0</v>
-      </c>
-      <c r="I50" s="13">
-        <v>2</v>
+      <c r="I50" t="s">
+        <v>108</v>
       </c>
       <c r="J50" t="s">
-        <v>110</v>
-      </c>
-      <c r="K50" t="s">
-        <v>99</v>
-      </c>
-      <c r="L50" s="5">
+        <v>97</v>
+      </c>
+      <c r="K50" s="5">
         <f t="shared" si="0"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="M50" s="6">
+      <c r="L50" s="6">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>94</v>
-      </c>
-      <c r="B51" s="3" t="s">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
         <v>71</v>
       </c>
+      <c r="B51" s="13">
+        <v>1</v>
+      </c>
       <c r="C51" s="13">
+        <v>4</v>
+      </c>
+      <c r="D51" s="13">
         <v>1</v>
       </c>
-      <c r="D51" s="13">
-        <v>4</v>
-      </c>
       <c r="E51" s="13">
+        <v>2</v>
+      </c>
+      <c r="F51" s="13">
         <v>1</v>
       </c>
-      <c r="F51" s="13">
+      <c r="G51" s="13">
         <v>2</v>
       </c>
-      <c r="G51" s="13">
+      <c r="H51" s="13">
         <v>1</v>
       </c>
-      <c r="H51" s="13">
+      <c r="I51" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="J51" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K51" s="5">
+        <f t="shared" ref="K51:K56" si="2">AVERAGE(B51:H51)</f>
+        <v>1.7142857142857142</v>
+      </c>
+      <c r="L51" s="6">
+        <f t="shared" ref="L51:L56" si="3">SUM(B51:H51)</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="13">
         <v>2</v>
-      </c>
-      <c r="I51" s="13">
-        <v>1</v>
-      </c>
-      <c r="J51" s="13" t="s">
-        <v>105</v>
-      </c>
-      <c r="K51" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L51" s="5">
-        <f t="shared" ref="L51:L56" si="2">AVERAGE(C51:I51)</f>
-        <v>1.7142857142857142</v>
-      </c>
-      <c r="M51" s="6">
-        <f t="shared" ref="M51:M56" si="3">SUM(C51:I51)</f>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="3" t="s">
-        <v>72</v>
       </c>
       <c r="C52" s="13">
         <v>2</v>
@@ -18990,176 +18831,164 @@
         <v>2</v>
       </c>
       <c r="E52" s="13">
+        <v>1</v>
+      </c>
+      <c r="F52" s="13">
+        <v>0</v>
+      </c>
+      <c r="G52" s="13">
+        <v>1</v>
+      </c>
+      <c r="H52" s="13">
         <v>2</v>
       </c>
-      <c r="F52" s="13">
-        <v>1</v>
-      </c>
-      <c r="G52" s="13">
-        <v>0</v>
-      </c>
-      <c r="H52" s="13">
-        <v>1</v>
-      </c>
-      <c r="I52" s="13">
-        <v>2</v>
+      <c r="I52" t="s">
+        <v>107</v>
       </c>
       <c r="J52" t="s">
-        <v>109</v>
-      </c>
-      <c r="K52" t="s">
-        <v>99</v>
-      </c>
-      <c r="L52" s="5">
+        <v>97</v>
+      </c>
+      <c r="K52" s="5">
         <f t="shared" si="2"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="M52" s="6">
+      <c r="L52" s="6">
         <f t="shared" si="3"/>
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
-        <v>94</v>
-      </c>
-      <c r="B53" s="3" t="s">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
         <v>73</v>
       </c>
+      <c r="B53" s="13">
+        <v>1</v>
+      </c>
       <c r="C53" s="13">
+        <v>4</v>
+      </c>
+      <c r="D53" s="13">
+        <v>0</v>
+      </c>
+      <c r="E53" s="13">
         <v>1</v>
       </c>
-      <c r="D53" s="13">
-        <v>4</v>
-      </c>
-      <c r="E53" s="13">
-        <v>0</v>
-      </c>
       <c r="F53" s="13">
+        <v>2</v>
+      </c>
+      <c r="G53" s="13">
+        <v>3</v>
+      </c>
+      <c r="H53" s="13">
         <v>1</v>
       </c>
-      <c r="G53" s="13">
-        <v>2</v>
-      </c>
-      <c r="H53" s="13">
-        <v>3</v>
-      </c>
-      <c r="I53" s="13">
-        <v>1</v>
-      </c>
-      <c r="J53" t="s">
-        <v>112</v>
-      </c>
-      <c r="K53" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L53" s="5">
+      <c r="I53" t="s">
+        <v>110</v>
+      </c>
+      <c r="J53" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K53" s="5">
         <f t="shared" si="2"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="M53" s="6">
+      <c r="L53" s="6">
         <f t="shared" si="3"/>
         <v>12</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
-        <v>94</v>
-      </c>
-      <c r="B54" s="3" t="s">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
         <v>74</v>
       </c>
+      <c r="B54" s="13">
+        <v>1</v>
+      </c>
       <c r="C54" s="13">
+        <v>3</v>
+      </c>
+      <c r="D54" s="13">
         <v>1</v>
       </c>
-      <c r="D54" s="13">
+      <c r="E54" s="13">
+        <v>2</v>
+      </c>
+      <c r="F54" s="13">
+        <v>0</v>
+      </c>
+      <c r="G54" s="13">
         <v>3</v>
-      </c>
-      <c r="E54" s="13">
-        <v>1</v>
-      </c>
-      <c r="F54" s="13">
-        <v>2</v>
-      </c>
-      <c r="G54" s="13">
-        <v>0</v>
       </c>
       <c r="H54" s="13">
         <v>3</v>
       </c>
-      <c r="I54" s="13">
-        <v>3</v>
+      <c r="I54" t="s">
+        <v>104</v>
       </c>
       <c r="J54" t="s">
-        <v>106</v>
-      </c>
-      <c r="K54" t="s">
-        <v>99</v>
-      </c>
-      <c r="L54" s="5">
+        <v>97</v>
+      </c>
+      <c r="K54" s="5">
         <f t="shared" si="2"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="M54" s="6">
+      <c r="L54" s="6">
         <f t="shared" si="3"/>
         <v>13</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B55" s="3" t="s">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
         <v>75</v>
       </c>
+      <c r="B55" s="13">
+        <v>2</v>
+      </c>
       <c r="C55" s="13">
+        <v>3</v>
+      </c>
+      <c r="D55" s="13">
         <v>2</v>
       </c>
-      <c r="D55" s="13">
+      <c r="E55" s="13">
         <v>3</v>
       </c>
-      <c r="E55" s="13">
-        <v>2</v>
-      </c>
       <c r="F55" s="13">
+        <v>1</v>
+      </c>
+      <c r="G55" s="13">
         <v>3</v>
       </c>
-      <c r="G55" s="13">
-        <v>1</v>
-      </c>
       <c r="H55" s="13">
-        <v>3</v>
-      </c>
-      <c r="I55" s="13">
         <v>0</v>
       </c>
-      <c r="J55" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K55" t="s">
-        <v>102</v>
-      </c>
-      <c r="L55" s="5">
+      <c r="I55" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J55" t="s">
+        <v>100</v>
+      </c>
+      <c r="K55" s="5">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="M55" s="6">
+      <c r="L55" s="6">
         <f t="shared" si="3"/>
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A56" t="s">
-        <v>94</v>
-      </c>
-      <c r="B56" s="3" t="s">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
         <v>76</v>
       </c>
+      <c r="B56" s="13">
+        <v>1</v>
+      </c>
       <c r="C56" s="13">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D56" s="13">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E56" s="13">
         <v>2</v>
@@ -19168,170 +18997,158 @@
         <v>2</v>
       </c>
       <c r="G56" s="13">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H56" s="13">
-        <v>4</v>
-      </c>
-      <c r="I56" s="13">
         <v>0</v>
       </c>
-      <c r="J56" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K56" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L56" s="5">
+      <c r="I56" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J56" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K56" s="5">
         <f t="shared" si="2"/>
         <v>2.1428571428571428</v>
       </c>
-      <c r="M56" s="6">
+      <c r="L56" s="6">
         <f t="shared" si="3"/>
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A57" t="s">
-        <v>94</v>
-      </c>
-      <c r="B57" s="3" t="s">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
         <v>77</v>
       </c>
+      <c r="B57" s="13">
+        <v>0</v>
+      </c>
       <c r="C57" s="13">
+        <v>3</v>
+      </c>
+      <c r="D57" s="13">
+        <v>2</v>
+      </c>
+      <c r="E57" s="13">
+        <v>1</v>
+      </c>
+      <c r="F57" s="13">
+        <v>2</v>
+      </c>
+      <c r="G57" s="13">
+        <v>4</v>
+      </c>
+      <c r="H57" s="13">
+        <v>1</v>
+      </c>
+      <c r="I57" t="s">
+        <v>110</v>
+      </c>
+      <c r="J57" t="s">
+        <v>98</v>
+      </c>
+      <c r="K57" s="5">
+        <f>AVERAGE(B57:H57)</f>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="L57" s="6">
+        <f>SUM(B57:H57)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B58" s="13">
         <v>0</v>
       </c>
-      <c r="D57" s="13">
-        <v>3</v>
-      </c>
-      <c r="E57" s="13">
+      <c r="C58" s="13">
+        <v>4</v>
+      </c>
+      <c r="D58" s="13">
         <v>2</v>
-      </c>
-      <c r="F57" s="13">
-        <v>1</v>
-      </c>
-      <c r="G57" s="13">
-        <v>2</v>
-      </c>
-      <c r="H57" s="13">
-        <v>4</v>
-      </c>
-      <c r="I57" s="13">
-        <v>1</v>
-      </c>
-      <c r="J57" t="s">
-        <v>112</v>
-      </c>
-      <c r="K57" t="s">
-        <v>100</v>
-      </c>
-      <c r="L57" s="5">
-        <f>AVERAGE(C57:I57)</f>
-        <v>1.8571428571428572</v>
-      </c>
-      <c r="M57" s="6">
-        <f>SUM(C57:I57)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A58" t="s">
-        <v>94</v>
-      </c>
-      <c r="B58" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C58" s="13">
-        <v>0</v>
-      </c>
-      <c r="D58" s="13">
-        <v>4</v>
       </c>
       <c r="E58" s="13">
         <v>2</v>
       </c>
       <c r="F58" s="13">
+        <v>3</v>
+      </c>
+      <c r="G58" s="13">
+        <v>4</v>
+      </c>
+      <c r="H58" s="13">
+        <v>0</v>
+      </c>
+      <c r="I58" t="s">
+        <v>107</v>
+      </c>
+      <c r="J58" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K58" s="5">
+        <f>AVERAGE(B58:H58)</f>
+        <v>2.1428571428571428</v>
+      </c>
+      <c r="L58" s="6">
+        <f>SUM(B58:H58)</f>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B59" s="13">
+        <v>0</v>
+      </c>
+      <c r="C59" s="13">
         <v>2</v>
       </c>
-      <c r="G58" s="13">
+      <c r="D59" s="13">
+        <v>1</v>
+      </c>
+      <c r="E59" s="13">
+        <v>0</v>
+      </c>
+      <c r="F59" s="13">
         <v>3</v>
       </c>
-      <c r="H58" s="13">
+      <c r="G59" s="13">
+        <v>5</v>
+      </c>
+      <c r="H59" s="13">
+        <v>0</v>
+      </c>
+      <c r="I59" t="s">
+        <v>107</v>
+      </c>
+      <c r="J59" t="s">
+        <v>97</v>
+      </c>
+      <c r="K59" s="5">
+        <f>AVERAGE(B59:H59)</f>
+        <v>1.5714285714285714</v>
+      </c>
+      <c r="L59" s="6">
+        <f>SUM(B59:H59)</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="B60" s="13">
+        <v>0</v>
+      </c>
+      <c r="C60" s="13">
         <v>4</v>
       </c>
-      <c r="I58" s="13">
-        <v>0</v>
-      </c>
-      <c r="J58" t="s">
-        <v>109</v>
-      </c>
-      <c r="K58" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L58" s="5">
-        <f>AVERAGE(C58:I58)</f>
-        <v>2.1428571428571428</v>
-      </c>
-      <c r="M58" s="6">
-        <f>SUM(C58:I58)</f>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A59" t="s">
-        <v>94</v>
-      </c>
-      <c r="B59" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C59" s="13">
-        <v>0</v>
-      </c>
-      <c r="D59" s="13">
-        <v>2</v>
-      </c>
-      <c r="E59" s="13">
+      <c r="D60" s="13">
         <v>1</v>
-      </c>
-      <c r="F59" s="13">
-        <v>0</v>
-      </c>
-      <c r="G59" s="13">
-        <v>3</v>
-      </c>
-      <c r="H59" s="13">
-        <v>5</v>
-      </c>
-      <c r="I59" s="13">
-        <v>0</v>
-      </c>
-      <c r="J59" t="s">
-        <v>109</v>
-      </c>
-      <c r="K59" t="s">
-        <v>99</v>
-      </c>
-      <c r="L59" s="5">
-        <f>AVERAGE(C59:I59)</f>
-        <v>1.5714285714285714</v>
-      </c>
-      <c r="M59" s="6">
-        <f>SUM(C59:I59)</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A60" t="s">
-        <v>94</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C60" s="13">
-        <v>0</v>
-      </c>
-      <c r="D60" s="13">
-        <v>4</v>
       </c>
       <c r="E60" s="13">
         <v>1</v>
@@ -19340,345 +19157,321 @@
         <v>1</v>
       </c>
       <c r="G60" s="13">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H60" s="13">
-        <v>5</v>
-      </c>
-      <c r="I60" s="13">
         <v>0</v>
       </c>
+      <c r="I60" t="s">
+        <v>106</v>
+      </c>
       <c r="J60" t="s">
-        <v>108</v>
-      </c>
-      <c r="K60" t="s">
-        <v>101</v>
-      </c>
-      <c r="L60" s="5">
-        <f>AVERAGE(C60:I60)</f>
+        <v>99</v>
+      </c>
+      <c r="K60" s="5">
+        <f>AVERAGE(B60:H60)</f>
         <v>1.7142857142857142</v>
       </c>
-      <c r="M60" s="6">
-        <f>SUM(C60:I60)</f>
+      <c r="L60" s="6">
+        <f>SUM(B60:H60)</f>
         <v>12</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A61" t="s">
-        <v>94</v>
-      </c>
-      <c r="B61" s="3" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>81</v>
       </c>
+      <c r="B61" s="13">
+        <v>0</v>
+      </c>
       <c r="C61" s="13">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D61" s="13">
         <v>3</v>
       </c>
       <c r="E61" s="13">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F61" s="13">
+        <v>2</v>
+      </c>
+      <c r="G61" s="13">
         <v>1</v>
       </c>
-      <c r="G61" s="13">
+      <c r="H61" s="13">
+        <v>0</v>
+      </c>
+      <c r="I61" t="s">
+        <v>107</v>
+      </c>
+      <c r="J61" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K61" s="5">
+        <f>AVERAGE(B61:H61)</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="L61" s="6">
+        <f>SUM(B61:H61)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B62" s="13">
+        <v>0</v>
+      </c>
+      <c r="C62" s="13">
+        <v>4</v>
+      </c>
+      <c r="D62" s="13">
         <v>2</v>
       </c>
-      <c r="H61" s="13">
+      <c r="E62" s="13">
         <v>1</v>
       </c>
-      <c r="I61" s="13">
+      <c r="F62" s="13">
         <v>0</v>
       </c>
-      <c r="J61" t="s">
-        <v>109</v>
-      </c>
-      <c r="K61" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L61" s="5">
-        <f>AVERAGE(C61:I61)</f>
+      <c r="G62" s="13">
+        <v>1</v>
+      </c>
+      <c r="H62" s="13">
+        <v>2</v>
+      </c>
+      <c r="I62" t="s">
+        <v>111</v>
+      </c>
+      <c r="J62" t="s">
+        <v>99</v>
+      </c>
+      <c r="K62" s="5">
+        <f t="shared" ref="K62:K64" si="4">AVERAGE(B62:H62)</f>
         <v>1.4285714285714286</v>
       </c>
-      <c r="M61" s="6">
-        <f>SUM(C61:I61)</f>
+      <c r="L62" s="6">
+        <f t="shared" ref="L62:L64" si="5">SUM(B62:H62)</f>
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
-        <v>94</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="13">
-        <v>0</v>
-      </c>
-      <c r="D62" s="13">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B63" s="13">
+        <v>1</v>
+      </c>
+      <c r="C63" s="13">
         <v>4</v>
       </c>
-      <c r="E62" s="13">
+      <c r="D63" s="13">
+        <v>1</v>
+      </c>
+      <c r="E63" s="13">
         <v>2</v>
-      </c>
-      <c r="F62" s="13">
-        <v>1</v>
-      </c>
-      <c r="G62" s="13">
-        <v>0</v>
-      </c>
-      <c r="H62" s="13">
-        <v>1</v>
-      </c>
-      <c r="I62" s="13">
-        <v>2</v>
-      </c>
-      <c r="J62" t="s">
-        <v>113</v>
-      </c>
-      <c r="K62" t="s">
-        <v>101</v>
-      </c>
-      <c r="L62" s="5">
-        <f t="shared" ref="L62:L64" si="4">AVERAGE(C62:I62)</f>
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="M62" s="6">
-        <f t="shared" ref="M62:M64" si="5">SUM(C62:I62)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
-        <v>94</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C63" s="13">
-        <v>1</v>
-      </c>
-      <c r="D63" s="13">
-        <v>4</v>
-      </c>
-      <c r="E63" s="13">
-        <v>1</v>
       </c>
       <c r="F63" s="13">
         <v>2</v>
       </c>
       <c r="G63" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H63" s="13">
-        <v>0</v>
-      </c>
-      <c r="I63" s="13">
         <v>3</v>
       </c>
+      <c r="I63" t="s">
+        <v>108</v>
+      </c>
       <c r="J63" t="s">
-        <v>110</v>
-      </c>
-      <c r="K63" t="s">
-        <v>103</v>
-      </c>
-      <c r="L63" s="5">
+        <v>101</v>
+      </c>
+      <c r="K63" s="5">
         <f t="shared" si="4"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="M63" s="6">
+      <c r="L63" s="6">
         <f t="shared" si="5"/>
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
-        <v>94</v>
-      </c>
-      <c r="B64" s="3" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>84</v>
       </c>
+      <c r="B64" s="13">
+        <v>2</v>
+      </c>
       <c r="C64" s="13">
+        <v>4</v>
+      </c>
+      <c r="D64" s="13">
         <v>2</v>
       </c>
-      <c r="D64" s="13">
+      <c r="E64" s="13">
         <v>4</v>
       </c>
-      <c r="E64" s="13">
+      <c r="F64" s="13">
+        <v>1</v>
+      </c>
+      <c r="G64" s="13">
         <v>2</v>
       </c>
-      <c r="F64" s="13">
+      <c r="H64" s="13">
         <v>4</v>
       </c>
-      <c r="G64" s="13">
-        <v>1</v>
-      </c>
-      <c r="H64" s="13">
-        <v>2</v>
-      </c>
-      <c r="I64" s="13">
-        <v>4</v>
-      </c>
-      <c r="J64" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K64" t="s">
-        <v>104</v>
-      </c>
-      <c r="L64" s="5">
+      <c r="I64" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J64" t="s">
+        <v>102</v>
+      </c>
+      <c r="K64" s="5">
         <f t="shared" si="4"/>
         <v>2.7142857142857144</v>
       </c>
-      <c r="M64" s="6">
+      <c r="L64" s="6">
         <f t="shared" si="5"/>
         <v>19</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>94</v>
-      </c>
-      <c r="B65" s="3" t="s">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="B65" s="13">
+        <v>1</v>
+      </c>
       <c r="C65" s="13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D65" s="13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E65" s="13">
         <v>2</v>
       </c>
       <c r="F65" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G65" s="13">
         <v>1</v>
       </c>
       <c r="H65" s="13">
+        <v>0</v>
+      </c>
+      <c r="I65" t="s">
+        <v>106</v>
+      </c>
+      <c r="J65" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K65" s="5">
+        <f t="shared" ref="K65:K67" si="6">AVERAGE(B65:H65)</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="L65" s="6">
+        <f t="shared" ref="L65:L67" si="7">SUM(B65:H65)</f>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" s="13">
+        <v>2</v>
+      </c>
+      <c r="C66" s="13">
+        <v>3</v>
+      </c>
+      <c r="D66" s="13">
         <v>1</v>
       </c>
-      <c r="I65" s="13">
+      <c r="E66" s="13">
+        <v>3</v>
+      </c>
+      <c r="F66" s="13">
         <v>0</v>
-      </c>
-      <c r="J65" t="s">
-        <v>108</v>
-      </c>
-      <c r="K65" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L65" s="5">
-        <f t="shared" ref="L65:L67" si="6">AVERAGE(C65:I65)</f>
-        <v>1.4285714285714286</v>
-      </c>
-      <c r="M65" s="6">
-        <f t="shared" ref="M65:M67" si="7">SUM(C65:I65)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A66" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C66" s="13">
-        <v>2</v>
-      </c>
-      <c r="D66" s="13">
-        <v>3</v>
-      </c>
-      <c r="E66" s="13">
-        <v>1</v>
-      </c>
-      <c r="F66" s="13">
-        <v>3</v>
       </c>
       <c r="G66" s="13">
         <v>0</v>
       </c>
       <c r="H66" s="13">
-        <v>0</v>
-      </c>
-      <c r="I66" s="13">
         <v>1</v>
       </c>
+      <c r="I66" t="s">
+        <v>110</v>
+      </c>
       <c r="J66" t="s">
-        <v>112</v>
-      </c>
-      <c r="K66" t="s">
-        <v>99</v>
-      </c>
-      <c r="L66" s="5">
+        <v>97</v>
+      </c>
+      <c r="K66" s="5">
         <f t="shared" si="6"/>
         <v>1.4285714285714286</v>
       </c>
-      <c r="M66" s="6">
+      <c r="L66" s="6">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A67" t="s">
-        <v>94</v>
-      </c>
-      <c r="B67" s="3" t="s">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>87</v>
       </c>
+      <c r="B67" s="13">
+        <v>1</v>
+      </c>
       <c r="C67" s="13">
+        <v>4</v>
+      </c>
+      <c r="D67" s="13">
         <v>1</v>
       </c>
-      <c r="D67" s="13">
-        <v>4</v>
-      </c>
       <c r="E67" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" s="13">
+        <v>0</v>
+      </c>
+      <c r="G67" s="13">
         <v>2</v>
-      </c>
-      <c r="G67" s="13">
-        <v>0</v>
       </c>
       <c r="H67" s="13">
         <v>2</v>
       </c>
-      <c r="I67" s="13">
-        <v>2</v>
-      </c>
-      <c r="J67" t="s">
-        <v>108</v>
-      </c>
-      <c r="K67" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L67" s="5">
+      <c r="I67" t="s">
+        <v>106</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K67" s="5">
         <f t="shared" si="6"/>
         <v>1.7142857142857142</v>
       </c>
-      <c r="M67" s="6">
+      <c r="L67" s="6">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A68" t="s">
-        <v>94</v>
-      </c>
-      <c r="B68" s="3" t="s">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>88</v>
       </c>
+      <c r="B68" s="13">
+        <v>1</v>
+      </c>
       <c r="C68" s="13">
+        <v>4</v>
+      </c>
+      <c r="D68" s="13">
+        <v>2</v>
+      </c>
+      <c r="E68" s="13">
         <v>1</v>
-      </c>
-      <c r="D68" s="13">
-        <v>4</v>
-      </c>
-      <c r="E68" s="13">
-        <v>2</v>
       </c>
       <c r="F68" s="13">
         <v>1</v>
@@ -19687,164 +19480,152 @@
         <v>1</v>
       </c>
       <c r="H68" s="13">
+        <v>3</v>
+      </c>
+      <c r="I68" t="s">
+        <v>107</v>
+      </c>
+      <c r="J68" t="s">
+        <v>98</v>
+      </c>
+      <c r="K68" s="5">
+        <f>AVERAGE(B68:H68)</f>
+        <v>1.8571428571428572</v>
+      </c>
+      <c r="L68" s="6">
+        <f>SUM(B68:H68)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B69" s="13">
         <v>1</v>
       </c>
-      <c r="I68" s="13">
+      <c r="C69" s="13">
         <v>3</v>
       </c>
-      <c r="J68" t="s">
-        <v>109</v>
-      </c>
-      <c r="K68" t="s">
-        <v>100</v>
-      </c>
-      <c r="L68" s="5">
-        <f>AVERAGE(C68:I68)</f>
-        <v>1.8571428571428572</v>
-      </c>
-      <c r="M68" s="6">
-        <f>SUM(C68:I68)</f>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="13">
+      <c r="D69" s="13">
         <v>1</v>
-      </c>
-      <c r="D69" s="13">
-        <v>3</v>
       </c>
       <c r="E69" s="13">
         <v>1</v>
       </c>
       <c r="F69" s="13">
+        <v>2</v>
+      </c>
+      <c r="G69" s="13">
         <v>1</v>
       </c>
-      <c r="G69" s="13">
+      <c r="H69" s="13">
+        <v>0</v>
+      </c>
+      <c r="I69" t="s">
+        <v>110</v>
+      </c>
+      <c r="J69" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="K69" s="5">
+        <f>AVERAGE(B69:H69)</f>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="L69" s="6">
+        <f>SUM(B69:H69)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="B70" s="13">
+        <v>0</v>
+      </c>
+      <c r="C70" s="13">
         <v>2</v>
-      </c>
-      <c r="H69" s="13">
-        <v>1</v>
-      </c>
-      <c r="I69" s="13">
-        <v>0</v>
-      </c>
-      <c r="J69" t="s">
-        <v>112</v>
-      </c>
-      <c r="K69" s="13" t="s">
-        <v>97</v>
-      </c>
-      <c r="L69" s="5">
-        <f>AVERAGE(C69:I69)</f>
-        <v>1.2857142857142858</v>
-      </c>
-      <c r="M69" s="6">
-        <f>SUM(C69:I69)</f>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
-        <v>94</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C70" s="13">
-        <v>0</v>
       </c>
       <c r="D70" s="13">
         <v>2</v>
       </c>
       <c r="E70" s="13">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F70" s="13">
+        <v>3</v>
+      </c>
+      <c r="G70" s="13">
         <v>0</v>
-      </c>
-      <c r="G70" s="13">
-        <v>3</v>
       </c>
       <c r="H70" s="13">
         <v>0</v>
       </c>
-      <c r="I70" s="13">
-        <v>0</v>
-      </c>
-      <c r="J70" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K70" t="s">
-        <v>101</v>
-      </c>
-      <c r="L70" s="5">
-        <f>AVERAGE(C70:I70)</f>
+      <c r="I70" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J70" t="s">
+        <v>99</v>
+      </c>
+      <c r="K70" s="5">
+        <f>AVERAGE(B70:H70)</f>
         <v>1</v>
       </c>
-      <c r="M70" s="6">
-        <f>SUM(C70:I70)</f>
+      <c r="L70" s="6">
+        <f>SUM(B70:H70)</f>
         <v>7</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A71" t="s">
-        <v>94</v>
-      </c>
-      <c r="B71" s="3" t="s">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>91</v>
+      </c>
+      <c r="B71" s="13">
+        <v>2</v>
       </c>
       <c r="C71" s="13">
         <v>2</v>
       </c>
       <c r="D71" s="13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E71" s="13">
         <v>1</v>
       </c>
       <c r="F71" s="13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G71" s="13">
         <v>2</v>
       </c>
       <c r="H71" s="13">
-        <v>2</v>
-      </c>
-      <c r="I71" s="13">
         <v>1</v>
       </c>
-      <c r="J71" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="K71" s="13" t="s">
-        <v>98</v>
-      </c>
-      <c r="L71" s="5">
+      <c r="I71" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="J71" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K71" s="5">
         <f t="shared" si="0"/>
         <v>1.5714285714285714</v>
       </c>
-      <c r="M71" s="6">
+      <c r="L71" s="6">
         <f t="shared" si="1"/>
         <v>11</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A72" t="s">
-        <v>94</v>
-      </c>
-      <c r="B72" s="3" t="s">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>92</v>
       </c>
+      <c r="B72">
+        <v>1</v>
+      </c>
       <c r="C72">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D72">
         <v>2</v>
@@ -19861,128 +19642,125 @@
       <c r="H72">
         <v>2</v>
       </c>
-      <c r="I72">
-        <v>2</v>
+      <c r="I72" t="s">
+        <v>105</v>
       </c>
       <c r="J72" t="s">
-        <v>107</v>
-      </c>
-      <c r="K72" t="s">
-        <v>101</v>
-      </c>
-      <c r="L72" s="5">
+        <v>99</v>
+      </c>
+      <c r="K72" s="5">
         <f t="shared" si="0"/>
         <v>1.8571428571428572</v>
       </c>
-      <c r="M72" s="6">
+      <c r="L72" s="6">
         <f t="shared" si="1"/>
         <v>13</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B74" s="4" t="s">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="B74" s="6">
+        <f t="shared" ref="B74:H74" si="8">SUM(B3:B72)</f>
+        <v>103</v>
+      </c>
       <c r="C74" s="6">
-        <f t="shared" ref="C74:I74" si="8">SUM(C3:C72)</f>
-        <v>103</v>
+        <f t="shared" si="8"/>
+        <v>214</v>
       </c>
       <c r="D74" s="6">
         <f t="shared" si="8"/>
-        <v>214</v>
+        <v>120</v>
       </c>
       <c r="E74" s="6">
         <f t="shared" si="8"/>
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="F74" s="6">
         <f t="shared" si="8"/>
-        <v>144</v>
+        <v>122</v>
       </c>
       <c r="G74" s="6">
         <f t="shared" si="8"/>
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="H74" s="6">
         <f t="shared" si="8"/>
-        <v>103</v>
-      </c>
-      <c r="I74" s="6">
-        <f t="shared" si="8"/>
         <v>73</v>
       </c>
+      <c r="I74" s="6"/>
       <c r="J74" s="6"/>
-      <c r="K74" s="6"/>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B75" s="4" t="s">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
         <v>11</v>
       </c>
+      <c r="B75" s="5">
+        <f t="shared" ref="B75:H75" si="9">AVERAGE(B3:B72)</f>
+        <v>1.4714285714285715</v>
+      </c>
       <c r="C75" s="5">
-        <f t="shared" ref="C75:I75" si="9">AVERAGE(C3:C72)</f>
-        <v>1.4714285714285715</v>
+        <f t="shared" si="9"/>
+        <v>3.0571428571428569</v>
       </c>
       <c r="D75" s="5">
         <f t="shared" si="9"/>
-        <v>3.0571428571428569</v>
+        <v>1.7142857142857142</v>
       </c>
       <c r="E75" s="5">
         <f t="shared" si="9"/>
-        <v>1.7142857142857142</v>
+        <v>2.0571428571428569</v>
       </c>
       <c r="F75" s="5">
         <f t="shared" si="9"/>
-        <v>2.0571428571428569</v>
+        <v>1.7428571428571429</v>
       </c>
       <c r="G75" s="5">
         <f t="shared" si="9"/>
-        <v>1.7428571428571429</v>
+        <v>1.4714285714285715</v>
       </c>
       <c r="H75" s="5">
         <f t="shared" si="9"/>
-        <v>1.4714285714285715</v>
-      </c>
-      <c r="I75" s="5">
-        <f t="shared" si="9"/>
         <v>1.0428571428571429</v>
       </c>
+      <c r="I75" s="5"/>
       <c r="J75" s="5"/>
-      <c r="K75" s="5"/>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B76" s="4" t="s">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="4" t="s">
         <v>10</v>
       </c>
+      <c r="B76" s="5">
+        <f t="shared" ref="B76:H76" si="10">_xlfn.STDEV.P(B3:B72)</f>
+        <v>1.3493006502992426</v>
+      </c>
       <c r="C76" s="5">
-        <f t="shared" ref="C76:I76" si="10">_xlfn.STDEV.P(C3:C72)</f>
-        <v>1.3493006502992426</v>
+        <f t="shared" si="10"/>
+        <v>1.1324526390060807</v>
       </c>
       <c r="D76" s="5">
         <f t="shared" si="10"/>
-        <v>1.1324526390060807</v>
+        <v>1.1356918236772451</v>
       </c>
       <c r="E76" s="5">
         <f t="shared" si="10"/>
-        <v>1.1356918236772451</v>
+        <v>1.1449979948293645</v>
       </c>
       <c r="F76" s="5">
         <f t="shared" si="10"/>
-        <v>1.1449979948293645</v>
+        <v>1.1549361675090135</v>
       </c>
       <c r="G76" s="5">
         <f t="shared" si="10"/>
-        <v>1.1549361675090135</v>
+        <v>1.1176688568039228</v>
       </c>
       <c r="H76" s="5">
         <f t="shared" si="10"/>
-        <v>1.1176688568039228</v>
-      </c>
-      <c r="I76" s="5">
-        <f t="shared" si="10"/>
         <v>1.1140109551361086</v>
       </c>
+      <c r="I76" s="5"/>
       <c r="J76" s="5"/>
-      <c r="K76" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/HackathonWebAppTests/Models/SampleData/EventApplications-Distributed.xlsx
+++ b/HackathonWebAppTests/Models/SampleData/EventApplications-Distributed.xlsx
@@ -8,23 +8,23 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\blakchrw\Repos\osu-bh-hackathon-webapp\HackathonWebAppTests\Models\SampleData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6421CB37-6395-479C-A840-6C260AC0D09E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E303D55-FCC4-4DBA-A23B-3629DCF97B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29430" yWindow="540" windowWidth="29310" windowHeight="19065" activeTab="1" xr2:uid="{2BD9F131-5200-4C4E-AA5A-580FA4153D0D}"/>
+    <workbookView xWindow="0" yWindow="3720" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{2BD9F131-5200-4C4E-AA5A-580FA4153D0D}"/>
   </bookViews>
   <sheets>
     <sheet name="Team-SampleData" sheetId="2" r:id="rId1"/>
     <sheet name="EventApps-SampleData-Curves" sheetId="1" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlchart.v1.0" hidden="1">'EventApps-SampleData-Curves'!$B$3:$B$72</definedName>
-    <definedName name="_xlchart.v1.1" hidden="1">'EventApps-SampleData-Curves'!$D$3:$D$72</definedName>
-    <definedName name="_xlchart.v1.2" hidden="1">'EventApps-SampleData-Curves'!$C$3:$C$72</definedName>
+    <definedName name="_xlchart.v1.0" hidden="1">'EventApps-SampleData-Curves'!$F$3:$F$72</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">'EventApps-SampleData-Curves'!$H$3:$H$72</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">'EventApps-SampleData-Curves'!$B$3:$B$72</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">'EventApps-SampleData-Curves'!$E$3:$E$72</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">'EventApps-SampleData-Curves'!$G$3:$G$72</definedName>
-    <definedName name="_xlchart.v1.5" hidden="1">'EventApps-SampleData-Curves'!$H$3:$H$72</definedName>
-    <definedName name="_xlchart.v1.6" hidden="1">'EventApps-SampleData-Curves'!$F$3:$F$72</definedName>
-    <definedName name="_xlcn.WorksheetConnection_applications.xlsxTable1" hidden="1">Table1[]</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">'EventApps-SampleData-Curves'!$D$3:$D$72</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">'EventApps-SampleData-Curves'!$C$3:$C$72</definedName>
+    <definedName name="_xlcn.WorksheetConnection_applications.xlsxTable11" hidden="1">Table1[]</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -66,7 +66,7 @@
     <extLst>
       <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{DE250136-89BD-433C-8126-D09CA5730AF9}">
         <x15:connection id="Table1" autoDelete="1">
-          <x15:rangePr sourceName="_xlcn.WorksheetConnection_applications.xlsxTable1"/>
+          <x15:rangePr sourceName="_xlcn.WorksheetConnection_applications.xlsxTable11"/>
         </x15:connection>
       </ext>
     </extLst>
@@ -404,9 +404,6 @@
     <t>general_business</t>
   </si>
   <si>
-    <t>architecure</t>
-  </si>
-  <si>
     <t>chemical_engineering</t>
   </si>
   <si>
@@ -417,6 +414,9 @@
   </si>
   <si>
     <t>Count</t>
+  </si>
+  <si>
+    <t>architecture</t>
   </si>
 </sst>
 </file>
@@ -5363,7 +5363,7 @@
                   <c:v>chemical_engineering</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>architecure</c:v>
+                  <c:v>architecture</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>biology</c:v>
@@ -5593,7 +5593,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.0</cx:f>
+        <cx:f>_xlchart.v1.2</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5685,7 +5685,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.2</cx:f>
+        <cx:f>_xlchart.v1.6</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -5772,7 +5772,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.5</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6033,7 +6033,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.6</cx:f>
+        <cx:f>_xlchart.v1.0</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -6120,7 +6120,7 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.1</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -16673,7 +16673,7 @@
   <dimension ref="A1:AF76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16952,7 +16952,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J8" s="13" t="s">
         <v>95</v>
@@ -17072,7 +17072,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
         <v>101</v>
@@ -17129,7 +17129,7 @@
         <v>93</v>
       </c>
       <c r="AF12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
@@ -17158,7 +17158,7 @@
         <v>2</v>
       </c>
       <c r="I13" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J13" t="s">
         <v>97</v>
@@ -17172,10 +17172,10 @@
         <v>14</v>
       </c>
       <c r="AA13" t="s">
+        <v>111</v>
+      </c>
+      <c r="AB13" t="s">
         <v>112</v>
-      </c>
-      <c r="AB13" t="s">
-        <v>113</v>
       </c>
       <c r="AE13" s="15" t="s">
         <v>103</v>
@@ -17448,7 +17448,7 @@
         <v>8</v>
       </c>
       <c r="AE18" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="AF18">
         <f>COUNTIF(Table1[Major],$AE18)</f>
@@ -17502,7 +17502,7 @@
         <v>3</v>
       </c>
       <c r="AE19" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="AF19">
         <f>COUNTIF(Table1[Major],$AE19)</f>
@@ -17610,7 +17610,7 @@
         <v>3</v>
       </c>
       <c r="AE21" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="AF21">
         <f>COUNTIF(Table1[Major],$AE21)</f>
@@ -17683,7 +17683,7 @@
         <v>2</v>
       </c>
       <c r="I23" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J23" s="13" t="s">
         <v>96</v>
@@ -17723,7 +17723,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J24" t="s">
         <v>98</v>
@@ -18123,7 +18123,7 @@
         <v>1</v>
       </c>
       <c r="I34" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J34" t="s">
         <v>99</v>
@@ -18243,7 +18243,7 @@
         <v>2</v>
       </c>
       <c r="I37" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J37" t="s">
         <v>97</v>
@@ -18363,7 +18363,7 @@
         <v>1</v>
       </c>
       <c r="I40" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J40" t="s">
         <v>98</v>
@@ -18443,7 +18443,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J42" s="13" t="s">
         <v>95</v>
@@ -18723,7 +18723,7 @@
         <v>1</v>
       </c>
       <c r="I49" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="J49" t="s">
         <v>99</v>
@@ -18883,7 +18883,7 @@
         <v>1</v>
       </c>
       <c r="I53" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J53" s="13" t="s">
         <v>96</v>
@@ -19043,7 +19043,7 @@
         <v>1</v>
       </c>
       <c r="I57" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J57" t="s">
         <v>98</v>
@@ -19243,7 +19243,7 @@
         <v>2</v>
       </c>
       <c r="I62" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="J62" t="s">
         <v>99</v>
@@ -19403,7 +19403,7 @@
         <v>1</v>
       </c>
       <c r="I66" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J66" t="s">
         <v>97</v>
@@ -19523,7 +19523,7 @@
         <v>0</v>
       </c>
       <c r="I69" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J69" s="13" t="s">
         <v>95</v>
